--- a/public/Datos_actualizados.xlsx
+++ b/public/Datos_actualizados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ICESI\ProyectoSGR23-Vaupes\Mapa_Interactivo\MapaInteractivo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5257F-7330-4086-ADAC-AC5B24C1B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0922413E-3769-4446-A451-34B3ADC2036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="689">
   <si>
     <t>Nombre</t>
   </si>
@@ -2317,9 +2317,6 @@
   </si>
   <si>
     <t>"...Los Pisa-mira/Pisa-tapuyo (língua geral) o Pápi-wa (KUB) ‘gente de red’ — se auto-denominan ~wachɨ̃da [González,2000:373] parecen haber estado ligados al Pirá en un pasado reciente." (Goméz-Imbert, 2004:44)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>"...Koch-Grünberg localiza a los PIS en el Caño Paca — hoy están sobre el Vaupés [KOC 13-16.8:945]..." (Goméz-Imbert, 2004:45)</t>
@@ -3557,7 +3554,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -3822,7 +3819,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -3886,7 +3883,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>73</v>
@@ -4724,7 +4721,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>73</v>
@@ -4801,7 +4798,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>211</v>
@@ -4812,7 +4809,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>78</v>
@@ -4823,7 +4820,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>78</v>
@@ -4834,7 +4831,7 @@
         <v>81</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>78</v>
@@ -4845,7 +4842,7 @@
         <v>81</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>84</v>
@@ -5132,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>73</v>
@@ -5187,7 +5184,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>73</v>
@@ -5209,7 +5206,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>239</v>
@@ -5229,7 +5226,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>73</v>
@@ -5251,7 +5248,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>73</v>
@@ -5306,7 +5303,7 @@
         <v>57</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>73</v>
@@ -5337,7 +5334,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>73</v>
@@ -5368,7 +5365,7 @@
         <v>65</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>73</v>
@@ -5401,7 +5398,7 @@
         <v>69</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>73</v>
@@ -5432,7 +5429,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>239</v>
@@ -5443,7 +5440,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>73</v>
@@ -5454,7 +5451,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>78</v>
@@ -5465,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>73</v>
@@ -5476,7 +5473,7 @@
         <v>85</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>73</v>
@@ -5540,7 +5537,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>108</v>
@@ -7352,7 +7349,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C28" s="7"/>
     </row>
@@ -7361,7 +7358,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C29" s="7"/>
     </row>
@@ -7434,7 +7431,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C36" s="31"/>
     </row>
@@ -7691,7 +7688,7 @@
         <v>116</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>118</v>
@@ -7788,7 +7785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A7A7F-A4F5-451E-8F0D-1ADAF98D51EC}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -7862,7 +7859,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -7926,7 +7923,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C13" s="7"/>
     </row>
@@ -8083,7 +8080,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C28" s="7"/>
     </row>
@@ -8092,7 +8089,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C29" s="7"/>
     </row>
@@ -8156,7 +8153,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C35" s="7"/>
     </row>
@@ -8176,7 +8173,7 @@
         <v>88</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C37" s="7"/>
     </row>
@@ -8465,8 +8462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5C99D6-5B1D-4B7A-AA7E-8A9EDA705657}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8501,28 +8498,24 @@
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
@@ -8530,33 +8523,29 @@
         <v>20</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="192" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>269</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8564,50 +8553,42 @@
         <v>20</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -8615,16 +8596,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
@@ -8632,7 +8613,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>133</v>
@@ -8645,7 +8626,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>137</v>
@@ -8658,7 +8639,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>135</v>
@@ -8671,10 +8652,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8684,7 +8665,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>143</v>
@@ -8697,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>271</v>
@@ -8710,7 +8691,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>282</v>
@@ -8723,7 +8704,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>41</v>
@@ -8736,10 +8717,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -8749,7 +8730,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>28</v>
@@ -8762,7 +8743,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>356</v>
@@ -8775,10 +8756,10 @@
         <v>33</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>562</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -8788,7 +8769,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>271</v>
@@ -8801,7 +8782,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>157</v>
@@ -8814,7 +8795,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>41</v>
@@ -8827,7 +8808,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>292</v>
@@ -8840,7 +8821,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>28</v>
@@ -8853,7 +8834,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>39</v>
@@ -8866,10 +8847,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -8879,7 +8860,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
@@ -8892,7 +8873,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>434</v>
@@ -8905,10 +8886,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>574</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -8918,7 +8899,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>164</v>
@@ -8931,7 +8912,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>28</v>
@@ -8944,7 +8925,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>166</v>
@@ -8957,7 +8938,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>271</v>
@@ -8970,7 +8951,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>171</v>
@@ -8983,7 +8964,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>314</v>
@@ -8996,7 +8977,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>131</v>
@@ -9009,7 +8990,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>131</v>
@@ -9022,7 +9003,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>271</v>
@@ -9035,10 +9016,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>584</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>585</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -9048,7 +9029,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>41</v>
@@ -9061,10 +9042,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>587</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>588</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -9074,7 +9055,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>487</v>
@@ -9087,7 +9068,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>56</v>
@@ -9100,7 +9081,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>271</v>
@@ -9113,7 +9094,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>184</v>
@@ -9126,7 +9107,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>184</v>
@@ -9139,7 +9120,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>419</v>
@@ -9152,7 +9133,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>186</v>
@@ -9165,7 +9146,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>84</v>
@@ -9178,7 +9159,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>28</v>
@@ -9191,7 +9172,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>271</v>
@@ -9204,7 +9185,7 @@
         <v>65</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>28</v>
@@ -9217,7 +9198,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>487</v>
@@ -9230,7 +9211,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>271</v>
@@ -9243,7 +9224,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>200</v>
@@ -9256,7 +9237,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>41</v>
@@ -9269,7 +9250,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>28</v>
@@ -9282,10 +9263,10 @@
         <v>68</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>605</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>606</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -9295,7 +9276,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>202</v>
@@ -9308,7 +9289,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>345</v>
@@ -9321,10 +9302,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -9334,7 +9315,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>271</v>
@@ -9347,7 +9328,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>71</v>
@@ -9360,7 +9341,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>209</v>
@@ -9373,7 +9354,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>271</v>
@@ -9386,7 +9367,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>28</v>
@@ -9399,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>421</v>
@@ -9412,7 +9393,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>211</v>
@@ -9425,7 +9406,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>17</v>
@@ -9438,7 +9419,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>354</v>
@@ -9451,7 +9432,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>356</v>
@@ -9464,7 +9445,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C74" s="27" t="s">
         <v>271</v>
@@ -9477,7 +9458,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C75" s="27" t="s">
         <v>80</v>
@@ -9490,7 +9471,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C76" s="27" t="s">
         <v>84</v>
@@ -9503,7 +9484,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>84</v>
@@ -9516,7 +9497,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>28</v>
@@ -9529,7 +9510,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>271</v>
@@ -9542,7 +9523,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>365</v>
@@ -9555,10 +9536,10 @@
         <v>85</v>
       </c>
       <c r="B81" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="C81" s="27" t="s">
         <v>627</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>628</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -9568,10 +9549,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>629</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>630</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -9581,7 +9562,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>84</v>
@@ -9594,7 +9575,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>376</v>
@@ -9607,7 +9588,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>216</v>
@@ -9620,7 +9601,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>373</v>
@@ -9633,10 +9614,10 @@
         <v>92</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>635</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>636</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -9646,7 +9627,7 @@
         <v>92</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>305</v>
@@ -9659,7 +9640,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>30</v>
@@ -9672,7 +9653,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>376</v>
@@ -9685,7 +9666,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>381</v>
@@ -9698,7 +9679,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C92" s="27" t="s">
         <v>376</v>
@@ -9711,7 +9692,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>378</v>
@@ -9724,7 +9705,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C94" s="27" t="s">
         <v>220</v>
@@ -9737,7 +9718,7 @@
         <v>101</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>260</v>
@@ -9750,7 +9731,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C96" s="27" t="s">
         <v>262</v>
@@ -9763,7 +9744,7 @@
         <v>101</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>384</v>
@@ -9776,7 +9757,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C98" s="27" t="s">
         <v>131</v>
@@ -9789,7 +9770,7 @@
         <v>106</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>388</v>
@@ -9802,7 +9783,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>459</v>
@@ -9815,7 +9796,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C101" s="27" t="s">
         <v>148</v>
@@ -9828,7 +9809,7 @@
         <v>106</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>262</v>
@@ -9841,7 +9822,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C103" s="27" t="s">
         <v>110</v>
@@ -9854,7 +9835,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C104" s="27" t="s">
         <v>131</v>
@@ -9867,7 +9848,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>115</v>
@@ -9880,7 +9861,7 @@
         <v>111</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C106" s="27" t="s">
         <v>30</v>
@@ -9893,7 +9874,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C107" s="27" t="s">
         <v>131</v>
@@ -9906,7 +9887,7 @@
         <v>116</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C108" s="27" t="s">
         <v>118</v>
@@ -9919,7 +9900,7 @@
         <v>116</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>120</v>
@@ -9932,7 +9913,7 @@
         <v>116</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C110" s="27" t="s">
         <v>30</v>
@@ -9945,7 +9926,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C111" s="27" t="s">
         <v>30</v>
@@ -9958,7 +9939,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C112" s="27" t="s">
         <v>386</v>
@@ -9971,24 +9952,20 @@
         <v>125</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C113" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="E113" s="52" t="s">
-        <v>531</v>
-      </c>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>84</v>
@@ -10001,7 +9978,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>267</v>

--- a/public/Datos_actualizados.xlsx
+++ b/public/Datos_actualizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ICESI\ProyectoSGR23-Vaupes\Mapa_Interactivo\MapaInteractivo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0922413E-3769-4446-A451-34B3ADC2036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB8831-E510-4631-9167-397DE44A16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="688">
   <si>
     <t>Nombre</t>
   </si>
@@ -95,15 +95,9 @@
     <t>Enlace7</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947</t>
-  </si>
-  <si>
     <t>uasöna, papiwa, papiua, pasatapuyo, wasona, wasina (Mincultura, Estudios de la lengua pisamira, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127</t>
-  </si>
-  <si>
     <t>Pisamira</t>
   </si>
   <si>
@@ -113,36 +107,21 @@
     <t>Tukano (Mincultura, Estudios de la lengua tukano, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116133</t>
-  </si>
-  <si>
     <t>Bará</t>
   </si>
   <si>
     <t>bará (Jackson, 1983:19)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116235</t>
-  </si>
-  <si>
     <t>barasano del norte (Mountain, 1978:4)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845</t>
-  </si>
-  <si>
     <t>Waymasa (Landaburu, 1999:42)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136</t>
-  </si>
-  <si>
     <t>Mira, Posanga, Posanga - Mira, Vara, (Mincultura, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116135</t>
-  </si>
-  <si>
     <t>Yurutí</t>
   </si>
   <si>
@@ -161,15 +140,9 @@
     <t>wanano, guanano (Waltz, N.&amp; C.,1982:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115872</t>
-  </si>
-  <si>
     <t>Uanána, Wanana (Peña, 2010:73)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274</t>
-  </si>
-  <si>
     <t>wanano, wanano-kotiria (Mincultura, Estudios de la lengua wanano, s.f.:1)</t>
   </si>
   <si>
@@ -188,21 +161,12 @@
     <t>kamiwa, pamié, cubea, cobewa, hipnwa, kaniwa, kubea, paniwa, papiwa (Mincultura, Estudios kubeo, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116123</t>
-  </si>
-  <si>
     <t>pamiva, Hijos de la anaconda central (Minciencia, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116206</t>
-  </si>
-  <si>
     <t>Kobéua (Kock-Grünberg, 1994:123)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116200</t>
-  </si>
-  <si>
     <t>Taiwano</t>
   </si>
   <si>
@@ -212,9 +176,6 @@
     <t>eduúria, erúlia, edulia, taiwano, taiwaeno, teiwana, taibano, tajuano, taiguano. (Mincultura, Estudios de la lengua eduuria, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121</t>
-  </si>
-  <si>
     <t>Macuna</t>
   </si>
   <si>
@@ -227,15 +188,9 @@
     <t>piratapuyo, pirá-tapúya, urubú-tapuya (Espinosa, 2020:36)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012</t>
-  </si>
-  <si>
     <t>urubú-tapuya, piratapuyo, piratapuya, parata puya, uaikama, wai kana, waikhana, urubú-tapuy (Mincultura, Estudios de la lengua piratapuyo, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128</t>
-  </si>
-  <si>
     <t>Piratapuia (Peña, 2010:105)</t>
   </si>
   <si>
@@ -245,9 +200,6 @@
     <t>carapaná, carapano, carapana-tapuya, karapana tapuya, möchda, möchdää, mochaáa y möxdöá   (Metzger, 1981:235)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958</t>
-  </si>
-  <si>
     <t>Siriano</t>
   </si>
   <si>
@@ -257,15 +209,9 @@
     <t>barasano del sur, barasana-taiwano, ... hanerã (o janena), paneroa, komea (Mincultura, Estudios de la lengua barasana, s.f.:1).</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116117</t>
-  </si>
-  <si>
     <t>palánoa, erulia tsölöa y hanera (Ardila, 2004:20)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159</t>
-  </si>
-  <si>
     <t>Tatuyo</t>
   </si>
   <si>
@@ -278,15 +224,9 @@
     <t>tanimuka. El término tanimuka, como se los conoce y denomina en el país, parece provenir de la lengua yeral. El término puede significar ‘ceniza’ y más específicamente ceniza de coca 'ceniza de coca' en ñengatú (Eraso, 2015:15)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906</t>
-  </si>
-  <si>
     <t>ufaina taninboka-tapuyo retuarã, retuama, letuarã, tanimuka letuama, ufanía, tanimuca, taniboka ohañara, opaima (Mincultura, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130</t>
-  </si>
-  <si>
     <t>Letuama</t>
   </si>
   <si>
@@ -296,9 +236,6 @@
     <t>aethonias (Spix &amp; Martius, 1976:223 cómo se citó en Cayón, 2013:116)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241</t>
-  </si>
-  <si>
     <t>Tuyuka</t>
   </si>
   <si>
@@ -326,9 +263,6 @@
     <t>hup, húpda, jupda, hupde (Epps, 2008:12)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115863</t>
-  </si>
-  <si>
     <t>hupda-makú (río Papurí), macú (río Tiquié)</t>
   </si>
   <si>
@@ -374,48 +308,30 @@
     <t>aniba, curripaca, curripaco, curripaka, curripako, kurripaca, kurripaco, urripaka, vaniba, vaniva (Mincultura, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124</t>
-  </si>
-  <si>
     <t>Yucuna</t>
   </si>
   <si>
     <t>"... la palabra 'yucuna' signidica cuento, narración..." (Schauer, S. &amp; J. 1971:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982</t>
-  </si>
-  <si>
     <t>yukuna, yukuna-matapí, yucuna, mapapí (Mincultura, Estudios de la lengua yucuna, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116138</t>
-  </si>
-  <si>
     <t>Kabiyarí</t>
   </si>
   <si>
     <t>kabiyarí, kawillary (Bourgue, 1976)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216</t>
-  </si>
-  <si>
     <t>cauyari, caryari, cabiuarí, cauyarí, kauyarí, cuyare, kawillary, caviyari, kaviyarí, caviyarí, cabiyarí (Mincultura, Estudios de la lengua cabiyarí, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116118</t>
-  </si>
-  <si>
     <t>Carijona</t>
   </si>
   <si>
     <t>carijona, karijona, umaua, rɨama coreba ('canibal' según los uitoto) (Guerrero-Beltran, 2019)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115852</t>
-  </si>
-  <si>
     <t>Umáua (Koch-Grünberg, 1994:124)</t>
   </si>
   <si>
@@ -425,39 +341,21 @@
     <t>geral, yeral (Palma de Feuillet, 1983:45)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916</t>
-  </si>
-  <si>
     <t>wãchɨ̃nã, wachɨnã, wachina (González de Pérez, 2000:373)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115914</t>
-  </si>
-  <si>
     <t>Uasöna o Pisa-tapuyo (hombres de la atarraya), (Pineda Giraldo &amp; Gull, 1945:179)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287</t>
-  </si>
-  <si>
     <t>"... son conocidos como Dasea..." (West &amp; Welch, 1974:35)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116076</t>
-  </si>
-  <si>
     <t>ye’pámahsa (U.Externado &amp; Mincultura &amp; ICC, 2018:19)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140</t>
-  </si>
-  <si>
     <t>dahséa mahsá, lo que en lengua significa 'Gente Tukan' (Mincultura, Caracterizaciones... s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116207</t>
-  </si>
-  <si>
     <t>Ye'pa masá (Peña, 2010:38)</t>
   </si>
   <si>
@@ -467,15 +365,9 @@
     <t>yepá majsá (Fulop, 1955:123)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115875</t>
-  </si>
-  <si>
     <t>ye’pa-di’iro-mahsã, gente de la carne de la tierra (Andrello &amp; Maia, 2019)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116141</t>
-  </si>
-  <si>
     <t>"...Los tucano se autodenominan dasea, es decir 'los pájaros tucanes..." (West, 1980:v prólogo)</t>
   </si>
   <si>
@@ -488,36 +380,21 @@
     <t>Ye’pa Masa (Hugh-Jones, 2002:47)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218</t>
-  </si>
-  <si>
     <t>waimaja, wàì~bàhá 'gente pez' (Gómez-Imbert, 1990:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116077</t>
-  </si>
-  <si>
     <t>Wai Maha “Pueblo pez" (Hugh-Jones, 2002:47)</t>
   </si>
   <si>
     <t>waimajã, waimasa, wamitañarã, pamoa, wañaco, bupua bara, posanga-mira, gente pez (Mincultura, Estudios de la lengua bará, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116116</t>
-  </si>
-  <si>
     <t>wajiara (Kinch, R. &amp; P., 2007:ii)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116004</t>
-  </si>
-  <si>
     <t>waihiara, wahyara, uhayána, totsoca, wadyana, wadzana, wai jiara masa- wadzana, waikana (Mincultura, Estudios de la lengua yurutí, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116137</t>
-  </si>
-  <si>
     <t>wa’hjara, wãj-ma’sã́, uaiana, waijara (gente paloma)</t>
   </si>
   <si>
@@ -530,42 +407,24 @@
     <t>kotiria (Stenzel &amp; Khoo, 2016:76)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116156</t>
-  </si>
-  <si>
     <t>"...Los desanos se llaman a sí mismos wĩrã..." (Swift de Miller, 1984:89)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115984</t>
-  </si>
-  <si>
     <t>wirá-pona, ʉmʉko masá 'Gente del Universo o Asiri Masá 'Gente del Sol' (Sampaio &amp; Castro, 2004:15)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116102</t>
-  </si>
-  <si>
     <t>"...Para  os  Ʉmʉrĩmahsa  (Desana)..." (Desano, 2019:28)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116091</t>
-  </si>
-  <si>
     <t>"... Sobre el significado de ―wirá-poná Fabre afirma que es 'hijos del viento (2005). Sin embargo, hay otros etnónimos endógenos en otros autores: -mimipora: hijos del colibrí‘, al parecer el colibrí es un animal totémico (Telban, 1988), y o 'ibi-ko'bma' gente del universo‘ (Buchillet, 1990)..." ('ibi-ko'bma 'Gente del Universo' (Espinosa, 2020:53)</t>
   </si>
   <si>
     <t>wirá, winá, uina, winá, uira, wirá boleka, oregua, kusibi (Mincultura, Estudios de la lengua desano, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116120</t>
-  </si>
-  <si>
     <t>"...en el Vaupés vivimos más de 6000 ~Pamiva (Kubeo)..." (Valencia, s.f.:9)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115988</t>
-  </si>
-  <si>
     <t>pãmiwã</t>
   </si>
   <si>
@@ -596,15 +455,9 @@
     <t>clanes o segmentos del pueblo makina: "... Ide Masã ‘Gente de Agua’, los Jeañarã ‘Gente Leña’, los Ɨmɨa Masã ‘Gente Día’ y los Itana o Roea Masã ‘Gente Dormilón’ (especie de pez)..." (Mahecha, 2015: 22)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178</t>
-  </si>
-  <si>
     <t>"... buhágana, makuna, macuna, sara, ide, masa, buhagana, siroa, tsoloa..."  (Mincultura, Estudios de la lengua makuna, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116126</t>
-  </si>
-  <si>
     <t>ömöa buhagana y särä (Ardila, 2004:20)</t>
   </si>
   <si>
@@ -632,36 +485,21 @@
     <t>"... mʉ᷈te᷈a᷈ma᷈sa᷈, significa 'la gente mosquito' (mʉ᷈te᷈a᷈ "mosquito"+ma᷈sa᷈ "people")..." (DiRado-Owens, 2020:17)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115986</t>
-  </si>
-  <si>
     <t>karapanã, mi tea, mitea, moxdoa, muxtea, (ucomaja, autodenominación)  (Mincultura, Estudios de la lengua karapana, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116119</t>
-  </si>
-  <si>
     <t>Clanes: "... dʉrʉa pacãrã ʉco majã, dʉrʉa mʉtẽrã ʉco majã y potañarã mʉtẽrã ʉco majã..." (Metzger, 2000:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115959</t>
-  </si>
-  <si>
     <t>ciriana, ciriano, cirnga, chiranga, si ra, siriana, sura masa (Mincultura, Estudios de la lengua siriano, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116129</t>
-  </si>
-  <si>
     <t>Yeba masa "gente de tierra" (Hugh-Jones, 2002:47)</t>
   </si>
   <si>
     <t>"… el etnónimo endógeno es jebá-basã 'pueblo de Jeba' que es parte de su antepasado mítico el jaguar …" (Gómez-Imbert &amp; Kenstowicz, 2000:420)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115884</t>
-  </si>
-  <si>
     <t>~hɨdá.pàká-~ra 'hɨnã grandes', sobrenombre: ~pàbò-a 'armadillos' (Gómez-Imbert, 1990:1)</t>
   </si>
   <si>
@@ -671,30 +509,18 @@
     <t>huná (Dufour, 1984:238-9)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116247</t>
-  </si>
-  <si>
     <t>hüna (Hugh-Jones, 2002:47)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116132</t>
-  </si>
-  <si>
     <t>Yahúna, yabahana. "... Los yabahána, de los cuales viven algunos individuos, probablemente los únicos de su grupo con los makuna, ...ellos hablan solamente yahúna..." (Koch-Grünberg, 1995:265)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116172</t>
-  </si>
-  <si>
     <t>cáawa</t>
   </si>
   <si>
     <t>kakua, bará, kakwa, cacua (Mincultura, Estudios de la lengua kakua, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122</t>
-  </si>
-  <si>
     <t>"...húp es un etnónimo que puede ser aplicado para significar 'humano' y específicamente 'persona de etnia hup. =d'əh es el plural o marcador de 'colectivo'; así 'hupd’əh significa 'gente, gente hup'..." (Epps, 2008:12)</t>
   </si>
   <si>
@@ -704,9 +530,6 @@
     <t>juhup, juhupde, johop, yuhupdá, yehúpde, yahup (Mincultura, Estudios de la lengua yuhup, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116139</t>
-  </si>
-  <si>
     <t>W-tariana</t>
   </si>
   <si>
@@ -749,21 +572,12 @@
     <t>dasea ye (West, 1980:v)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115924</t>
-  </si>
-  <si>
     <t>waimaja ye (Stolte, J. &amp; N., 1984:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115968</t>
-  </si>
-  <si>
     <t>wáimaja, waípinõmakã waimaha, barasano del norte, pocanga (Mincultura, Estudios de la lengua bará, s.f.:1)</t>
   </si>
   <si>
-    <t xml:space="preserve">http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159 </t>
-  </si>
-  <si>
     <t>kotiria</t>
   </si>
   <si>
@@ -776,9 +590,6 @@
     <t>pãmie (la lengua cubeo), pami kamu ('lengua cubeo') (Costa, 2012:2)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115904</t>
-  </si>
-  <si>
     <t>eduria (Mincultura, Estudios de la lengua eduuria, s.f.:1)</t>
   </si>
   <si>
@@ -824,15 +635,9 @@
     <t>tariano kumandene y tariano wamiarikune (Aikhenvald, 2021:79)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116153</t>
-  </si>
-  <si>
     <t>"...Como se ve, existe una dimensión dialectológica 'émica', como indicó Granadillo (2006), reproducida por los propios Baniwa-Koripako. Eso fue notado y sirvió de base para las propuestas dialectológicas desarrolladas inicialmente en Venezuela y Colombia, las cuales abordan la variación de la lengua Baniwa-Koripako desde un punto de vista 'perceptual' (Preston, 1999), esto es, a partir de una lógica clasificatoria de variantes de los propios hablantes y a partir de shibboleths, o sea,  variantes estereotipadas del habla de ciertos grupos y regiones (ver Ovalle, 1998; Granadillo, 2006; Gonçalves, 2018)..." (Costa-Chacon, Garcia-Gonçalves &amp; Ferreira da Silva, 2019:46)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115954</t>
-  </si>
-  <si>
     <t>"...en la lengua la palabra 'yucuna' tiene el significado de una historia o estado de ser de alguien o algo..." (Schauer, J. &amp; S, 1971:62)</t>
   </si>
   <si>
@@ -845,21 +650,12 @@
     <t>"...González de Pérez (1997: 498) anota al respecto: 'se llamó lingua geral, en portugués, o nheengatú, en tupí (nhee, ‘lengua’; katu, ‘buena’)'. Mosonyi et ál. (2003: 115) señalan otra etimología para ñeengatú o ñengatú, que significaría “palabra verdadera': 'ñe´e’: palabra; ‘katú’: verdadero..." (nota pie de página en Cabrera, 2009)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116253</t>
-  </si>
-  <si>
     <t>"...En total, contabilicé que de los 58 individuos que se identifican como wãtʃ!̃nã, únicamente un reducido número de nueve personas –todos pertenecientes a la misma familia nuclear– pueden considerarse como hablantes activos de la lengua. No obstante, dentro de la comunidad hay otros siete adultos pisamiras que logran comunicarse razonablemente con sus familiares, aunque la mayoría del tiempo usan cubeo o piratapuyo por lo que en mis análisis son considerados semi-hablantes..." (Rodríguez-Preciado, 2018:7)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115915</t>
-  </si>
-  <si>
     <t>"25 hablantes" (Ardila, 1989:28)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125</t>
-  </si>
-  <si>
     <t>"...se habla de un total de 61 indígenas (Dane) pertenecientes a este pueblo, aunque según datos suministrados por los mismos pisamira, en la comunidad de Yacayacá habitan 53. Ahora, si se tiene en cuenta la población que se ha desplazado a Mitú, alcanzarían casi el centenar..." (Mincultura, Estudios de la lengua pisamira, s.f.:1)</t>
   </si>
   <si>
@@ -881,18 +677,12 @@
     <t>2117 (UNICEF-FUNPROEIB, 2009:360) son datos del censo 1993</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115</t>
-  </si>
-  <si>
     <t>"...de las 1997 personas mayores de 2 años, 1460 hablan bien tucano (73,1%) y 158 entienden y hablan poco (7,9%). Esto quiere decir que en total, 1618 personas hablan la lengua nativa, es decir, el 81% de la población. Por otro lado, hay 195 personas que entienden pero no hablan la lengua nativa (9,8%), y 179 no entienden y no hablan (9%). En total, 374 personas no hablan tucano, lo que equivale al 18,8% del total de la población..." (Mincultura, Estudios de la lengua tucano, s.f.:2)</t>
   </si>
   <si>
     <t>"The estimated number of living Tucano in Colombia is 1500." (Elson, 1967: 14)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115826</t>
-  </si>
-  <si>
     <t>"... El tucano es la lengua comercial de la multilingüe área del Vaupés.... El número de tucanos que viven en Colombia es de 1500. La lista se basa en los datos reunidos por las lingüistas Betty Welch y Birdie West..."(Mountain, 1978:4)</t>
   </si>
   <si>
@@ -911,18 +701,12 @@
     <t>Habitantes 90 (Landaburu, 1999:42)</t>
   </si>
   <si>
-    <t xml:space="preserve">http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136 </t>
-  </si>
-  <si>
     <t>"...el número total de estos es 400..." (Mountain, 1978:4)</t>
   </si>
   <si>
     <t>200 hablantes aproximadamente (Benavidez &amp; Díaz, 2015:12)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888</t>
-  </si>
-  <si>
     <t>300 hablantes (Ardila, 1989:29)</t>
   </si>
   <si>
@@ -959,9 +743,6 @@
     <t>2000 kotiria (Stenzel, Marques, Galvez &amp; Cabral, 2017:189)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116111</t>
-  </si>
-  <si>
     <t>800 personas (Mountain, 1978:5)</t>
   </si>
   <si>
@@ -986,15 +767,9 @@
     <t>"...El Censo DANE 2005 reportó 2179 personas autoreconocidas como pertenecientes al pueblo Desano, de las cuales el 50,1% son hombres (1.093 personas) y el 49,8% mujeres (1.086 personas). El 80,3% de la población (1.751 personas), se localiza en el departamento del Vaupés. Le siguen el departamento de Guaviare con el 9,3% de la población (203 habitantes), Guainía con el 4,3 % (94 habitantes) ... La población Desano que habita en zonas urbanas corresponde al 61,6 % (1.344 personas), cifra inferior (sic) al promedio nacional de población indígena urbana que es del 21,43%..." (Mincultura, Caracterizaciones... s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208</t>
-  </si>
-  <si>
     <t>"... Llegan a unos dos mil y están en aumento..." (Morse &amp; Salser, 1984:51)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115985</t>
-  </si>
-  <si>
     <t>"2.000 habitantes" (Ardila, 1989:27)</t>
   </si>
   <si>
@@ -1046,9 +821,6 @@
     <t>"...Más de 1400 piratapuyos habitan Colombia y Brasil en las regiones del río Papurí, el bajo Vaupés y el río Negro (Kristine Stenzel, comunicación personal)..." (Waltz, C. &amp; Waltz, N., 2015:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115918</t>
-  </si>
-  <si>
     <t>"...Hay aproximadamente 250 hablantes..." (Mountain, 1978:4)</t>
   </si>
   <si>
@@ -1079,9 +851,6 @@
     <t>"El Censo DANE 2005 reportó 544 personas autoreconocidas como pertenecientes al pueblo Siriano, de las cuales el 45,8% son hombres (249 personas) y el 54,2% mujeres (295 personas). El pueblo Siriano se concentra en el departamento del Vaupés, en donde habita el 61,9% de la población (337 personas). Le sigue Guaviare con el 8,1% (44 personas) y Meta con el 6,1% (33 personas). Estos tres departamentos se concentran el 76,1% poblacional de este pueblo. Los Siriano representan el 0,04% de la población indígena de Colombia." (Mincultura, Caracterizaciones, s.f.:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116260</t>
-  </si>
-  <si>
     <t>Habitantes 700 (Landaburu, 1999:42)</t>
   </si>
   <si>
@@ -1106,15 +875,9 @@
     <t>180 personas (von Hildebrand, 1976:179)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116227</t>
-  </si>
-  <si>
     <t>"... es hablada, entre tanimucas y letuamas, por aproximadamente 500 personas..." (Arango, 2017:20)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115877</t>
-  </si>
-  <si>
     <t>"400 hablantes" (Ardila, 1989:28)</t>
   </si>
   <si>
@@ -1139,9 +902,6 @@
     <t>El 75% de la población tuyuka habla su lengua, esto equivale aproximadamente a 487 personas (Mincultura, Estudios de la lengua tuyuka, s.f.:2)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116134</t>
-  </si>
-  <si>
     <t>Habitantes 600 (Landaburu, 1999:42)</t>
   </si>
   <si>
@@ -1157,64 +917,37 @@
     <t>"... lo hablan aproximadamente entre 100 y 150 personas..." (Cathcart,1979:10)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115936</t>
-  </si>
-  <si>
     <t>Traducciones personales: "Los aproximadamente 2.000 Hupd’äh viven en comunidades que van desde unas pocas familias hasta varios cientos de personas..." (Epps, Salustiano, Monteiro &amp; Pires, 2017:277)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109</t>
-  </si>
-  <si>
     <t>"... De los grupos nómadas llamados Makú (lenguas Cacua, Hupda, Nukak, Yuhup)no tenemos cifras precisas. Pensamos sin embargo que sus poblaciones puedenoscilar entre 100 y 1000 personas..." (Landaburu, 1999:43)</t>
   </si>
   <si>
     <t>"... la población total en Colombia y Brasil se puede estimar en quinientas personas..." (Franky &amp; Mahecha, 1997:3 en Ospina-Bozzi, 2008:200)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183</t>
-  </si>
-  <si>
     <t>"...en 2017 habitaban 63 hablantes de la lengua yuhup (código Iso 639: yab), perteneciente a la familia llamada Makú (Martins, 2005) o Naduhup (Epps &amp; Bolaños, 2017)..." (Orjuela-Salinas &amp; Ospina-Bozzi, 2019:245)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115823</t>
-  </si>
-  <si>
     <t>"En la actualidad, se estima que en Colombia su población oscila entre los 100 y los 150 individuos, aunque existen informes que calculan alrededor de 550 yuhup en la frontera de Colombia y Brasil (Mahecha y Franky, 1997, y Fundación Gaia, 2006)." (Mincultura, Estudios de la lengua yuhup, s.f.:1)</t>
   </si>
   <si>
     <t>"...es hablada por cerca de quinientas personas dispersas en la región fronteriza entre Colombia y Brasil" (Ospina-Bozzi, 2015:38)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116259</t>
-  </si>
-  <si>
     <t>3000; hablantes dialecto kumandene: 40; hablantes dialecto wamiarikune: 70 personas (Aikhenvald, 2021:79)</t>
   </si>
   <si>
     <t>"Brasil es el país con mayor número de población tariana, con cerca de 1.900 indígenas, pero solo alrededor de 100 hablan su lengua ancestral (Aikhenvald, 2003). Según datos del DNP, en Colombia hay 197 indígenas que conforman el pueblo tariano. Pero también existen registros de una población aproximada de 445 personas (Arango y Sánchez, 2004). En Brasil existen pocos hablantes de la lengua porque ha ocurrido un proceso de tukanización. En Colombia también se ha presentado este proceso y se ha considerado que el tariano es una lengua extinta en el país" (Mincultura, Estudios de la lengua tariano, s.f.:2)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116131</t>
-  </si>
-  <si>
     <t>"... The ethnic Tariana number more than 1500 (Rodrigues 1986). Thereare approximately 100 adult speakers of the language scattered on themain river..." (Aikhenvald, 1996:273)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146</t>
-  </si>
-  <si>
     <t>6.948 índígenas kurripako (Ortiz, 1998:56)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943</t>
-  </si>
-  <si>
     <t>"…En el Isana colombiano los Curripacos ocupan unos quince sitios a ambos lados del río... reúnen entre cuatro y diez casas familiares con una población entre quince y sesenta personas... El total de la población en la zona es aproximadamente de trescientas personas..." (Journet, 1980:131)</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116238</t>
   </si>
   <si>
     <t>"... El Censo DANE 2005 reportó 4340 personas autoreconocidas..." (Mincultura, Estudios de la lengua kurripako, s.f.:1)</t>
@@ -1767,9 +1500,6 @@
     </r>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213</t>
-  </si>
-  <si>
     <t>Dentro de las narraciones kotiria se encuentra "Los cementerios sagrados kotiria", la cual cuenta la historia de tres hermanos que al pelearse por una esposa, crean los cementerios que los grupos de la actualidad consideran sagrados. La historia y el audio original se encuentran en los enlaces referenciados.</t>
   </si>
   <si>
@@ -1867,13 +1597,7 @@
     <t>"El pueblo Makuna según su cosmovisión proviene del Manaitara, un raudal en el río Apaporis. Como la mayoría de los pueblos del Vaupés, se consideran también hijos de la Anaconda de Agua, creencia que se transmite a través de la leyenda del Güío-dios" (Mincultura, caracterizaciones, s.f.:1).</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116210</t>
-  </si>
-  <si>
     <t>"El principio del universo para los Makuna comenzó con una esfera de oscuridad. Romi Kumu una mujer chamán apareció en este mundo y creó toda la tierra en el raudal de la Yuisi, o la Libertad, y designó distintos territorios para los grupos étnicos que fueron creados. También aparecieron los cuatro dioses masculinos, los Ayawa (los hijos del mundo que crearon el universo con el Yuruparí), quienes al ver que lo que creó Romi Kumu, no tenía sentido decidieron darle una idea para que ella creara el mundo físico. La anaconda de la yuca era el dueño de todas las frutas silvestres y lo demás sobre la tierra era. De las cenizas de esta anaconda nacieron las palmas por lo que los frutos silvestres no se pueden comer porque son el mismo Yuruparí y origen de los Makuna y todos los demás pueblos indígenas" (Mincultura, caracterizaciones,s.f.:5).</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211</t>
   </si>
   <si>
     <t>"...El tiempo es conceptualizado como una dinámica espacial que resulta, en términos reales, de la acción directa del eterno ciclo de lluvias que alternan con la época seca acarreando el interminable desplazamiento de seres en un determinado sentido y que van dejando una aureola en el espacio a cada paso de su largo recorrido desde el nacimiento a las bocanas de los rios. Según los macuna, el ciclo se inicia con la salida de los animales de sus moradas míticas en el nacimiento de los ríos; unas especies detrás de las otras y a medida que van pasando por el espacio propio de cada comunidad, la naturaleza se reviste de un ambiente y un colorido caracterlstico que conforma el cortejo de cada especie. La época de una clase de ranas es, en ese caso,cuando el río está empezando a desbordarse, cuando las aguas de río se empañan; y así cuando aparece la pava, las aguas de los rios presenta notra característica y cierto tipo de árboles dan frutos..." (Palma de Feuillet, 1983:92).</t>
@@ -1929,9 +1653,6 @@
   </si>
   <si>
     <t>"... Los niños son escuchas de historias sobre fantasmas que inundan los caminos en las noches y devoran a aquellos que tontamente dejan la protección de las malocas..." (Mincultura, Caracterizaciones, s.f.:5)</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116212</t>
   </si>
   <si>
     <t>"... Dentro de su cosmología el universo se concibe como un gran cono conformado por trece discos superpuestos. Los tanimuka habitan la plataforma central.Clasifican tres especialistas: el Chamáno Yaico -hombre jaguar-, el maestro de ceremonias y el maloquero. Consideran que cada grupo de seres vivospertenece a un dueño con el que hay que negociar para acceder a ellos. Durante el ritual del “Yuruparí“ los niños deben aprender los mitos y tradiciones másimportantes de su cultura..." (Mincultura, s.f.:1)</t>
@@ -2034,40 +1755,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116153 </t>
-  </si>
-  <si>
     <t>"... the origin myth: the forefathers of the Tariana are supposed to have originated in the blood of Thunder (who is said to be the Tariana's ancestor). The members of more senior subgroups used the Tucano version of this name, diroa (Moreira 1994)..." (Aikhenvald, A.Y., 1996:273) . "... 'inconsistency' appears to be characteristic of Tariana mythological tradition..." (Aikhenvald, 1996:277)</t>
   </si>
   <si>
     <t>"... mia-ka-pani 'rapids of the ancients' , where the Tariana are said to have originated. This is the Tariana name for the Rapids of Wapui, situated on the Aiari river, a tributary of the I~ana (map 2). Both the Tariana and Baniwa originated here and lived here together, according to their origin myths. From here, the Tariana migrated to the Vaupes...masipiru-taku 'point of the butterfly': Promontory on the Vaupes River which the Tariana passed on their way from the Wapui to the Vaupes... manaka-pina 'valley of acai fruit': Valley on the Vaupes River which the Tariana passed when they first arrived on the Vaupes; so named because this type of fruit grows there. It is not clear whether Tariana actually lived there, or only passed the place... mawali-dapana 'house of the snake': Cave which the Tariana passed on their way from Wapui to the Vaupes. This and the following term are the names of caves thought to be inhabited by the spirits of the corresponding beings... daru-dapana 'house of the arara parrot': Cave which the Tariana passed on their way from Wapui to the Vaupes... tuili-kere 'island of the japu bird': Island on the Vaupes where warfare with the Guananos took place. This is named after a Tariana leader called 'japubird'. Tariana lived there before..." (Aikhenvald, 1996:280)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116147</t>
-  </si>
-  <si>
     <t>"... iniri-yawa 'the hole of the tralra fish' (traira-CL.HOLE): Place where the mythic traira fish hid the son of Kali, one of creators of the world... kali-pani 'the rapids of Kali' (Kali-AFF.RAPIDS): Place on the Querari river where Kali lived... kainiki-da 'the stone of manioc' (manioc-CL.ROUND): The stone on the Querari river where Kali gave manioc to the first people... waliru-na 'the mountain of the evil spirit' (evil spirit-CL. VERTICAL): Mountain on the Upper Rio Negro, near Sao Gabriel da Cachoeira, where Kali met his lastwife, the'evil spirit's daughter. The mountain resembles a sleeping woman, and is popularly known in Portuguese as Bela Adormeeida 'Sleeping Beauty'... ifiere-tapu-Ie 'spirit's dream' (spirit-dream-POSS): Island on the Papuri River where Tariana's forefathers dreamed about the future... iri-pua 'river of blood' -(blood-CL.RIVER): River where enemies ate the grandfather of the Tariana..." (Aikhenvald, 1996:281)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116148</t>
-  </si>
-  <si>
     <t>"...Ipanore Rapids, where Tucano-speaking subtribes of the Tariana still live. The mythological traditions of various East Tucanoan peoples (Buchillet 1994) state they emerged from the rapids of Ipanore. But Tariana tradition is different: it relates that Ipanore was the place where all the East Tucanoan tribes came together and arrived at various agreements. Since the Tariana arrived "late," they did not receive their portion of "magic breath," which is believed to be the source of all kinds of sorcery, and which went mostly to Desanas. (This corresponds to the fact that the Tariana are indeed the most recent arrivals to the region.) Hence the name 'rapids of magic breath'..." (Aikhenvald, 1996:282)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116149</t>
-  </si>
-  <si>
     <t>"... yawhipani, from yawi 'jaguar' and the archaic suffix -hipani 'rapids';. The place was named from the adventures of a mythic character yawi-wali 'jaguar-like one', who lived there and who lost a battle to the forefathers of the Tariana, called irine..." (Aikhenvald, 1996:282)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116150</t>
-  </si>
-  <si>
     <t>"... El término “Yurupary” proviene de la lengua geral, una lengua franca introducida por los misioneros colonialistas pioneros, para referirse a un “diablo” indio, a diferencia de “Tupã”, el dios tupí del trueno y el dios cristiano. Tanto “Yurupary” como “Tupā” siguen siendo términos ampliamente utilizados en el noroeste de la Amazonia, como nombres globalizadores que reemplazan a las deidades específicas y grandes espíritus de 22 grupos étnicos que pueblan la región. Aquí se evitó el término “Yurupary” porque es una imposición colonial, que confunde múltiples tradiciones distintas en una y, al hacerlo, no respeta la riqueza y diversidad entre las tradiciones locales. Para los pueblos de habla Arawak de la región, las tradiciones de Kuwai (y variaciones de este nombre, como Kue, Kuwaiwa, Chuway, Cueti y Kuwe) han sido tan importantes como las que han tenido los pueblos Heé- massa, Miñapõrã-mahsã y muchos otros pueblos de la región de lenguas Tukano Oriental...." (Wright, 2017:611).</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116217</t>
   </si>
   <si>
     <r>
@@ -2112,9 +1815,6 @@
     <t>"... La expresión Pudale denota la relación que establece el pueblo Kurripako con su contexto natural, con selvas bajas, ondulaciones altas y terrazas, bosque escasamente denso, y poseedor de especies arbóreas gruesas, con sotobosque y suelo cubierto por capas de hojas en descomposición, surcado por varios desagües, igapós y catingales, que separan sabanas planas cubiertas de hierbas, con afloraciones arenosas. Este territorio es representado a través de los instrumentos musicales (cacho de venado, flautas, carrizos, flauta püti), que representan cantos de pájaros, que logran reproducir bastante fielmente los trinos de aves hembra y macho, entre otros (Montenegro, s.a)..." (Mincultura, Caracterizaciones... s.f.:2)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209</t>
-  </si>
-  <si>
     <t>"... La historia de las creencias kurripako se divide en dos a partir de la llegada de Sofía Müller en 1948... En realidad, es poca la literatura que se encuentra de ese gran período pre-evangelizador; sin embargo, gracias a la tradición oral indígena, los investigadores han recolectado un grupo de mitos, junto con relatos que hacen referencia a la historia real de las comunidades. La primera etapa de la religión kurripako se refleja en los mitos que se podrían dividir en dos épocas; en la primera, los que hacen referencia a la creación del mundo y de los seres humanos, junto con el orden primigenio y jerárquico que el dios Iñapirrikurri (espíritu de dios encarnado en un grillo) les impuso, y una segunda época que recrea las hazañas del dios Kuwai..." (Ortiz, 1998:59).</t>
   </si>
   <si>
@@ -2163,15 +1863,9 @@
     <t>"...En la etapa de los cinco a los seis años, los niños aprenden su lengua asimilándolos conocimientos ancestrales y tradicionales como la historia del pueblo yurutí, los mitos y leyendas, las danzas, los pasos para hacer una chagra o la forma de pescar y cazar..." (Mincultura, Caracterizaciones..., s.f.:2).</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116214</t>
-  </si>
-  <si>
     <t>"...En cuanto a los materiales escritos de la lengua indígena yurutí se cuenta con algunas cartillas, libros de aprendizaje y diccionarios. Entre los títulos más conocidos se encuentran: la Cartilla de lectoescritura –Español– Wajiara 1, 2 y 3, "¡Bupuya, momoãwʉ̃, bupuya!" (¡Brinque, rana, brinque!), "¿Dairo ĩĩgari cʉ̃ʉ̃?" (¿Qué dice él?), "Búugo ñíĩgõ" (La guara negra), "Caru cʉ̃ʉ̃yá díayʉ turumena" (Carlos con su perro Turú), "Cúu basamasĩhegʉra basamirigue quéti ñaã" (El cuento de la tortuga que no supo como bailar), "Ĩcãbʉreco cúu ñámamena cʉtʉĩñáyura" (El día que la tortuga y el venado se retaron a una carrera), "Tʉbʉro ʉsero paigʉ" (El sapo boca grande), "Wajiarayemena ojare, Yéeñecõ mímimena cṹ̶jãcã bíirigue quéti ñaã" (El cuento de lo que pasó con la garza morena y el colibrí)..." (Mincultura, Caracterizaciones..., s.f.:3)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116215</t>
-  </si>
-  <si>
     <t>Benavidez y Díaz (2015:44 y siguientes) hacen un capítulo extenso de anotaciones sueltas sobre la cultura y creencias actuales de los yurutí, mostrando que ha habido cambios con respecto a los mitos y leyendas tradicionales de los grupos Tucano Orientales, y a la vez conservación de ciertas tradiciones de danza y de saber rirual (payés que curan).</t>
   </si>
   <si>
@@ -2187,9 +1881,6 @@
     <t>"…los resultados obtenidos hasta el momento muestran que el grupo denominado taiwano, eduria, habla una variedad estrechamente emparentada con el barasana. Sus mínimas diferencias a nivel lingüístico no permiten postular la existencia del taiwano como una variedad lingüística diferente del barasano..." (Ardila, 1995:107).</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910</t>
-  </si>
-  <si>
     <t>"...barasano - taiwano : una lengua, dos grupos exogámicos..." (UNICEF-FUNPROEIB, 2009:368)</t>
   </si>
   <si>
@@ -2241,15 +1932,9 @@
     <t>"... En el tuyuca, y aparentamente también en el tucano y el barasano, la nasalización se distribuye en el morfema. Es decir, cada morfema o es totalmente nasalizado o totalmente oral... El tono alto y el acento se dan concurrentemente en estos tres idiomas. El tucano y el barasano manifestan el acento múltiple..." (Barnes, 1980:40)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115856</t>
-  </si>
-  <si>
     <t xml:space="preserve">"... El cauca pertenece a la familia linguística puinave-macú..." (Cathcart, M.,1979:10) </t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115922</t>
-  </si>
-  <si>
     <t>"... Epps (2008) en su gramática del hup, lengua de la familia naduhup con la que más comparte rasgos el yuhup, menciona que la composición es muy productiva en la lengua y, al igual que en yuhup, puede presentar relaciones metafóricas o metonímicas entre sus componentes. Describe las características fonológicas y morfológicas de la reduplicación, destacando que no es un proceso productivo en nombres...." (Ortiz,R., 2023:4)</t>
   </si>
   <si>
@@ -2358,9 +2043,6 @@
     <t>"...Los indios tukano se encuentran localizados sobre el bajo río Vaupés, desde las cataratas de Ipanoré hasta la desembicadura del Vaupés en el Río Negro; sobre los ríos Tiquie y Papurí..." (Fulop, 1954:99)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116026</t>
-  </si>
-  <si>
     <t>0.2835849608727887, -69.27775676382981</t>
   </si>
   <si>
@@ -2379,9 +2061,6 @@
     <t>"… se visitaron tres comunidades tucanas (Acaricuara, La Floresta y Tamacuarí), ubicadas en las orillas del río Paca y del río Papurí". (Rojas &amp; Avendaño, 2018:40)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116114</t>
-  </si>
-  <si>
     <t>"… dezenas de comunidades nos rios Vaupés, Papuri e Tiquié, na região do alto rio Negro…" (Andrello &amp; Maia, 2019:54)</t>
   </si>
   <si>
@@ -2397,9 +2076,6 @@
     <t>"...pase diez y ocho meses con una comunidad de indígenas bará en el río Inambú..." (Jackson, 1991:27)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116162</t>
-  </si>
-  <si>
     <t>"... se habla a lo largo de los afluentes de los ríos Pirá-Paraná y Papurí, en las cabeceras del río Tiquié...También hay de estos hablantes en el Brasil..." (Mountain,1978:4)</t>
   </si>
   <si>
@@ -2409,9 +2085,6 @@
     <t>"...las poblaciones yurutí ubicadas en los ríos Paca y Yi..." (Valencia, 2014:IV Mapa)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115899</t>
-  </si>
-  <si>
     <t>"Vaupes, Ti, San Luis del Paca" (Ardila, 1989:29)</t>
   </si>
   <si>
@@ -2433,9 +2106,6 @@
     <t>"...desde el área de Santa Cruz abajo de Mitú hasta Ibacaba en el bajo Vaupés en la frontera de Brasil…" (Waltz, N. &amp; C.,1997:1)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115917</t>
-  </si>
-  <si>
     <t>"...La concentración más grande está en la aldea de VillaFátima  situada a unos dieciseis kilómetros de la frontera con Brasil. Santa Cruz es la segunda..." (Mountain, 1978:4)</t>
   </si>
   <si>
@@ -2443,9 +2113,6 @@
   </si>
   <si>
     <t>"... La mayoría de ellos (kotiria) viven en comunidades tradicionales localizadas a lo largo del río Vaupés, un territorio ocupado por al menos siete siglos..." (Stenzel, 2013:10)</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115907</t>
   </si>
   <si>
     <t>"... Las principales aldeas de los desano están en el caño Abiú, caño Macú y Río Papurí ...También hay algunos desanos que viven en el río Vaupés..." (Swift de Miller, 1984:89)</t>
@@ -2497,18 +2164,12 @@
     </r>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116180</t>
-  </si>
-  <si>
     <t>"Los Cubeo que provinieron de los ríos Cuduyarí, Querarí y del bajo Vaupés ocupan una gran parte del nordeste de la ciudad de Mitú en los barrios La esperanza, Palmeras y Las Brisas" (Peña, 2010:160)</t>
   </si>
   <si>
     <t>"... viven en el río Piraparaná y sus tributarios, caño Tatú y caño Colorano en Vaupés, Colombia..." (Smith, R., 1976:39)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115834</t>
-  </si>
-  <si>
     <t>"...Sónaña en Alto Pira-paraná..." (Ardila,1995:107)</t>
   </si>
   <si>
@@ -2560,9 +2221,6 @@
     <t>"Paca y Vilia" (Ardila, 1989:28)</t>
   </si>
   <si>
-    <t xml:space="preserve">http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125 </t>
-  </si>
-  <si>
     <t>"El pueblo siriano se encuentra localizado en el departamento del -Vaupés. Habita en las riberas del río Paca, en las localidades de Acaricuara, Guadalajara, San Gerardo y San Pablo; del río Viña, en las localidades de Waracapuri y San José del Viña, y del caño Ti (afluente del Vaupés)." (Mincultura, Estudios de la lengua siriano, s.f.:1)</t>
   </si>
   <si>
@@ -2626,15 +2284,9 @@
     <t>"alto Tiquié e Inambu, afluentes del Vaupés, en el alto río Negro" (Richard, 2022:11)</t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116188</t>
-  </si>
-  <si>
     <t>Pto. Cordillera -Resguardo-PNN Yaigojé-Apaporis (Ospina-Bozzi &amp; Cita-Triana, 2018:4) </t>
   </si>
   <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115836</t>
-  </si>
-  <si>
     <t>Se ubican en el Caño Caquetá (badiya) (Cayón, 2013:258)</t>
   </si>
   <si>
@@ -2648,9 +2300,6 @@
   </si>
   <si>
     <t>"... comunidad hup de Taracua Igarapé, conocida en Hup como Tát Dëh, o ‘Hormiga (sp.) Arroyo’. Taracua Igarapé está ubicada a lo largo del gran arroyo que lleva el mismo nombre, a aproximadamente una hora de caminata hacia el bosque desde la orilla del río Tiquié, y es hogar de unas 150 personas (Epps, Salustiano, Monteiro &amp; Pires, 2017:277)</t>
-  </si>
-  <si>
-    <t>http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116110</t>
   </si>
   <si>
     <t>"... la comunidad de Cabari do Japu (Pìj Dëh)..." (Epps, Salustiano, Monteiro &amp; Pires, 2017:279)</t>
@@ -2885,6 +2534,354 @@
 4. Camino de la maloca.
 Los caminos de los Hijos del Cielo son, según los Kawillary, la creación del espacio, de la tierra y de los ríos sobre los cuales vendrá a proyectarse el grupo."
 (Bourgue, 1976:104)</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116253</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116118</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115915</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116026</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116076</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116207</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116114</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116141</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115826</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116162</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115877</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115899</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116137</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115872</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115917</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116212</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115907</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115984</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116102</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116120</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116180</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115834</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116210</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116126</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125 </t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116129</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116260</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116117</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116247</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116132</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116227</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116134</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116188</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115836</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116110</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116111</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116259</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115823</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116139</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116153</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115954</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116131</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116217</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116138</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116214</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116215</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116149</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115986</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115856</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115922</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116153 </t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116147</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116148</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116150</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116133</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136 </t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116156</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116135</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115985</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116123</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115918</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116119</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115936</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116238</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115852</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115924</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159 </t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115988</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115904</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116172</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115863</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115914</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115875</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116235</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116004</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116091</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/115884</t>
+  </si>
+  <si>
+    <t>https://repository.icesi.edu.co/biblioteca_digital/handle/10906/116200</t>
   </si>
 </sst>
 </file>
@@ -3528,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32FAD24-061B-496F-ACE4-69DF669892A3}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,618 +3548,618 @@
     </row>
     <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>664</v>
+        <v>547</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>673</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BA7F3AAF-3C6B-47D1-8396-D0FB2681BBD8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1F40BF98-ADA1-45B0-9C67-41A1314B6119}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0C2F2682-85E7-4D30-9086-0EA863493F03}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{9DC979D1-0ABE-401B-B2A5-51D1C969BF56}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{0D68975E-50C6-469F-8656-C394162E111C}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B43935AB-977C-44CF-A41D-A5B32D84D481}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{75AB60AF-E805-4FD7-856E-E287F18CBA88}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{A48C7E7A-C9AA-41A4-B194-B1818C556A90}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{C0A305B4-0BD1-493B-ACB3-C97CB2FAC856}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{E0E8C6DC-5918-440E-85FB-949898CBEFBC}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{6E1AC5AD-9D34-47AC-958D-2A53EE3D2CF4}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{42E11803-3B0C-45BD-A174-7830D98C63CA}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{ADFEDDF8-F385-4E65-9EC5-E9B355DAB23B}"/>
-    <hyperlink ref="C21" r:id="rId14" xr:uid="{822C4B1A-E933-4055-A341-CC6057001C14}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{4BAF5FDB-AAF7-4CCE-8704-B0873C5B78DC}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{A4AD1870-B063-4245-AD07-6D4EA279BD32}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{E989AA30-F859-4D49-9A14-8CAEF68FB69B}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{917E5C4A-1C8C-4348-81F1-2E1297319726}"/>
-    <hyperlink ref="C28" r:id="rId19" xr:uid="{BEE9C9D8-C0DB-4B97-9503-86CBD28C1661}"/>
-    <hyperlink ref="C29" r:id="rId20" xr:uid="{467542B1-68D7-4D6A-BC21-22D9823FC22E}"/>
-    <hyperlink ref="C30" r:id="rId21" xr:uid="{11404B8C-F85B-4CE0-9096-B02C91DB4D76}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{7EBB9176-AB11-4DF3-BD6B-6D6025ED6EDE}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{34A75F77-7916-48E4-ABA8-49ECA65BD652}"/>
-    <hyperlink ref="C34" r:id="rId24" xr:uid="{6F005DBF-B228-4151-85FB-C1475FBC9AF7}"/>
-    <hyperlink ref="C37" r:id="rId25" xr:uid="{D856A28E-18C3-41D4-9B4E-404CC60248BF}"/>
-    <hyperlink ref="C39" r:id="rId26" xr:uid="{44976EE3-7DEA-485D-AE61-DF7C10B686E7}"/>
-    <hyperlink ref="C41" r:id="rId27" xr:uid="{ED7424E9-0885-429C-B443-7CD337B27224}"/>
-    <hyperlink ref="C44" r:id="rId28" xr:uid="{8A70D53C-3325-4AD3-9314-34B80C0260B8}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947" xr:uid="{BA7F3AAF-3C6B-47D1-8396-D0FB2681BBD8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{1F40BF98-ADA1-45B0-9C67-41A1314B6119}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116133" xr:uid="{0C2F2682-85E7-4D30-9086-0EA863493F03}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116235" xr:uid="{9DC979D1-0ABE-401B-B2A5-51D1C969BF56}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{0D68975E-50C6-469F-8656-C394162E111C}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{B43935AB-977C-44CF-A41D-A5B32D84D481}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116135" xr:uid="{75AB60AF-E805-4FD7-856E-E287F18CBA88}"/>
+    <hyperlink ref="C12" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115872" xr:uid="{A48C7E7A-C9AA-41A4-B194-B1818C556A90}"/>
+    <hyperlink ref="C13" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{C0A305B4-0BD1-493B-ACB3-C97CB2FAC856}"/>
+    <hyperlink ref="C14" r:id="rId10" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116135" xr:uid="{E0E8C6DC-5918-440E-85FB-949898CBEFBC}"/>
+    <hyperlink ref="C17" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116123" xr:uid="{6E1AC5AD-9D34-47AC-958D-2A53EE3D2CF4}"/>
+    <hyperlink ref="C18" r:id="rId12" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116206" xr:uid="{42E11803-3B0C-45BD-A174-7830D98C63CA}"/>
+    <hyperlink ref="C19" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116200" xr:uid="{ADFEDDF8-F385-4E65-9EC5-E9B355DAB23B}"/>
+    <hyperlink ref="C21" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{822C4B1A-E933-4055-A341-CC6057001C14}"/>
+    <hyperlink ref="C23" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012" xr:uid="{4BAF5FDB-AAF7-4CCE-8704-B0873C5B78DC}"/>
+    <hyperlink ref="C24" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128" xr:uid="{A4AD1870-B063-4245-AD07-6D4EA279BD32}"/>
+    <hyperlink ref="C25" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{E989AA30-F859-4D49-9A14-8CAEF68FB69B}"/>
+    <hyperlink ref="C26" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{917E5C4A-1C8C-4348-81F1-2E1297319726}"/>
+    <hyperlink ref="C28" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116117" xr:uid="{BEE9C9D8-C0DB-4B97-9503-86CBD28C1661}"/>
+    <hyperlink ref="C29" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{467542B1-68D7-4D6A-BC21-22D9823FC22E}"/>
+    <hyperlink ref="C30" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{11404B8C-F85B-4CE0-9096-B02C91DB4D76}"/>
+    <hyperlink ref="C31" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906" xr:uid="{7EBB9176-AB11-4DF3-BD6B-6D6025ED6EDE}"/>
+    <hyperlink ref="C32" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130" xr:uid="{34A75F77-7916-48E4-ABA8-49ECA65BD652}"/>
+    <hyperlink ref="C34" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{6F005DBF-B228-4151-85FB-C1475FBC9AF7}"/>
+    <hyperlink ref="C37" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{D856A28E-18C3-41D4-9B4E-404CC60248BF}"/>
+    <hyperlink ref="C39" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115863" xr:uid="{44976EE3-7DEA-485D-AE61-DF7C10B686E7}"/>
+    <hyperlink ref="C41" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{ED7424E9-0885-429C-B443-7CD337B27224}"/>
+    <hyperlink ref="C44" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{8A70D53C-3325-4AD3-9314-34B80C0260B8}"/>
     <hyperlink ref="C46" r:id="rId29" xr:uid="{9D0F069A-EF03-4A17-9F1F-F2E87C47E3DD}"/>
     <hyperlink ref="C47" r:id="rId30" xr:uid="{ED14BA74-CB03-4297-881B-A0BDEFA94367}"/>
     <hyperlink ref="C48" r:id="rId31" xr:uid="{D1BC218F-C9BA-474C-B2A1-6EC037F57998}"/>
-    <hyperlink ref="C49" r:id="rId32" xr:uid="{D5FA6464-1354-4017-8606-66BB50D19020}"/>
-    <hyperlink ref="C50" r:id="rId33" xr:uid="{AEEA257F-B46C-45C7-BA5B-FFD3629F49C6}"/>
-    <hyperlink ref="C51" r:id="rId34" xr:uid="{D01E0D16-00D4-4884-9BA3-B436BA10177E}"/>
-    <hyperlink ref="C52" r:id="rId35" xr:uid="{259CB912-BB77-42EF-BD94-8086136AD35F}"/>
-    <hyperlink ref="C53" r:id="rId36" xr:uid="{283D2571-C96F-45E0-9A83-2E4F3726093D}"/>
-    <hyperlink ref="C54" r:id="rId37" xr:uid="{DBD29D96-F922-4BAB-A0E1-420CF4C7E70C}"/>
-    <hyperlink ref="C55" r:id="rId38" xr:uid="{CB6D9E08-D37C-438D-B3E3-806B07FC416B}"/>
-    <hyperlink ref="C56" r:id="rId39" xr:uid="{F27F54A5-8B9E-4CD9-9818-0DC692309511}"/>
+    <hyperlink ref="C49" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{D5FA6464-1354-4017-8606-66BB50D19020}"/>
+    <hyperlink ref="C50" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982" xr:uid="{AEEA257F-B46C-45C7-BA5B-FFD3629F49C6}"/>
+    <hyperlink ref="C51" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116138" xr:uid="{D01E0D16-00D4-4884-9BA3-B436BA10177E}"/>
+    <hyperlink ref="C52" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216" xr:uid="{259CB912-BB77-42EF-BD94-8086136AD35F}"/>
+    <hyperlink ref="C53" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116118" xr:uid="{283D2571-C96F-45E0-9A83-2E4F3726093D}"/>
+    <hyperlink ref="C54" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115852" xr:uid="{DBD29D96-F922-4BAB-A0E1-420CF4C7E70C}"/>
+    <hyperlink ref="C55" r:id="rId38" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116200" xr:uid="{CB6D9E08-D37C-438D-B3E3-806B07FC416B}"/>
+    <hyperlink ref="C56" r:id="rId39" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916" xr:uid="{F27F54A5-8B9E-4CD9-9818-0DC692309511}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
@@ -4173,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF437172-F46E-4681-82B7-808C3B658C01}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,895 +4193,895 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>133</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>137</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>141</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>143</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>668</v>
+        <v>551</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>153</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>155</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>157</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>162</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>164</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>166</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>168</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>173</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>184</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>186</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>196</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>669</v>
+        <v>552</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>205</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>684</v>
+        <v>567</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>211</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>670</v>
+        <v>553</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>666</v>
+        <v>549</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>213</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>216</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>94</v>
+        <v>680</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>220</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>113</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>113</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>123</v>
+        <v>673</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C78" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{30ADDD7F-67B8-4549-ADC3-2564E752B66B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{3675CE6A-3D96-4942-8FE7-CC578AB2A040}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3120CDC9-004C-40CE-B77D-74291262F4DD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4DED84D7-6F76-4A77-9F8C-48E3E6C87EBC}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8BCBE666-88F8-47DD-B95C-613DB139CD54}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{5922FEAE-19FA-40F3-BEDA-167ED107EBF5}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{B01BA96A-1C27-4E5B-ABDD-F4A22BEE9985}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{AF533901-6F3C-4A53-B768-D7E2FA8EADE7}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{2FBC2497-5BD4-4BDF-A793-3370AE2E66BE}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115914" xr:uid="{30ADDD7F-67B8-4549-ADC3-2564E752B66B}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{3675CE6A-3D96-4942-8FE7-CC578AB2A040}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116076" xr:uid="{3120CDC9-004C-40CE-B77D-74291262F4DD}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140" xr:uid="{4DED84D7-6F76-4A77-9F8C-48E3E6C87EBC}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116207" xr:uid="{8BCBE666-88F8-47DD-B95C-613DB139CD54}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{5922FEAE-19FA-40F3-BEDA-167ED107EBF5}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012" xr:uid="{B01BA96A-1C27-4E5B-ABDD-F4A22BEE9985}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115875" xr:uid="{AF533901-6F3C-4A53-B768-D7E2FA8EADE7}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116141" xr:uid="{2FBC2497-5BD4-4BDF-A793-3370AE2E66BE}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{BF851700-CFA8-40DD-9F95-A23CE5499AB2}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{091801C3-7651-4319-AE7D-22E8DD66C81B}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{99711B4E-40E6-4902-9E50-F13C6E2D5884}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{A50E74FD-A40A-4541-A5B6-996C226FA099}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{B7B68062-8813-46AB-8FBF-82CD2A1EE26F}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{A3B4E156-C602-4F22-9072-FB9A82F7EB05}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{2B7CDD3C-B2ED-4320-84A6-1EC4C13748F5}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{0117B8DA-F5C5-4465-BAE1-C8CCB0D9F5F8}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{B839DBA5-191E-4907-99A6-B99D7ECE161F}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{3C1A6153-E4A1-4093-9E01-D1CFAEE0F17F}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{9A84FD48-7990-4BAB-B198-D8F6D5CADBC3}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{73FD4BD4-2391-40D9-985B-8B81A099BFA8}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{369817CF-EEF4-411B-A171-E942999768C4}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{0D257A12-86BA-42C3-B59A-39DF53435C29}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{E574F13D-F427-4B9C-BDCF-B79E1110F3B1}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{5DCF95ED-DBAC-4886-ADCB-6CF0ACA78ADE}"/>
-    <hyperlink ref="C28" r:id="rId26" xr:uid="{A700A02E-2476-4997-993C-3E0F1C4D7C5D}"/>
-    <hyperlink ref="C29" r:id="rId27" xr:uid="{75BBD3B6-2CB4-4823-880B-67E5E8B595D7}"/>
-    <hyperlink ref="C31" r:id="rId28" xr:uid="{EC8C4BEC-44E1-4B68-A75F-A13288EA882A}"/>
-    <hyperlink ref="C32" r:id="rId29" xr:uid="{98CFC57B-B468-43BB-8266-1D5FBB538BF5}"/>
-    <hyperlink ref="C33" r:id="rId30" xr:uid="{05B12307-A926-4FEB-BACA-0E308940BF6B}"/>
-    <hyperlink ref="C34" r:id="rId31" xr:uid="{8F563E49-B80C-4889-80DA-43E548066E7E}"/>
-    <hyperlink ref="C35" r:id="rId32" xr:uid="{AECC4D94-2458-4412-A8AE-F40161E3E206}"/>
-    <hyperlink ref="C36" r:id="rId33" xr:uid="{0DC38332-CB9A-422D-A223-9E54DDE17E1E}"/>
-    <hyperlink ref="C37" r:id="rId34" xr:uid="{89256A1C-CF97-4FF7-8306-8E4C2478DFFB}"/>
-    <hyperlink ref="C38" r:id="rId35" xr:uid="{FC8A3486-E6B9-47AF-BCAF-6DF3625B8C21}"/>
-    <hyperlink ref="C39" r:id="rId36" xr:uid="{BB89F7D4-ED1F-413E-932A-C10BFC3EB76E}"/>
-    <hyperlink ref="C40" r:id="rId37" xr:uid="{C4972040-9F66-412F-9AA6-1DBC01DA9453}"/>
-    <hyperlink ref="C41" r:id="rId38" xr:uid="{64689099-AC25-48DD-8B24-08186DE689F2}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{9FD54504-FC63-499C-A1F9-A6FB3396FD00}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116235" xr:uid="{091801C3-7651-4319-AE7D-22E8DD66C81B}"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{99711B4E-40E6-4902-9E50-F13C6E2D5884}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{A50E74FD-A40A-4541-A5B6-996C226FA099}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116077" xr:uid="{B7B68062-8813-46AB-8FBF-82CD2A1EE26F}"/>
+    <hyperlink ref="C16" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{A3B4E156-C602-4F22-9072-FB9A82F7EB05}"/>
+    <hyperlink ref="C17" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116116" xr:uid="{2B7CDD3C-B2ED-4320-84A6-1EC4C13748F5}"/>
+    <hyperlink ref="C18" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116004" xr:uid="{0117B8DA-F5C5-4465-BAE1-C8CCB0D9F5F8}"/>
+    <hyperlink ref="C19" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116137" xr:uid="{B839DBA5-191E-4907-99A6-B99D7ECE161F}"/>
+    <hyperlink ref="C21" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{3C1A6153-E4A1-4093-9E01-D1CFAEE0F17F}"/>
+    <hyperlink ref="C22" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{9A84FD48-7990-4BAB-B198-D8F6D5CADBC3}"/>
+    <hyperlink ref="C23" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116156" xr:uid="{73FD4BD4-2391-40D9-985B-8B81A099BFA8}"/>
+    <hyperlink ref="C24" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115984" xr:uid="{369817CF-EEF4-411B-A171-E942999768C4}"/>
+    <hyperlink ref="C25" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116102" xr:uid="{0D257A12-86BA-42C3-B59A-39DF53435C29}"/>
+    <hyperlink ref="C26" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116091" xr:uid="{E574F13D-F427-4B9C-BDCF-B79E1110F3B1}"/>
+    <hyperlink ref="C27" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012" xr:uid="{5DCF95ED-DBAC-4886-ADCB-6CF0ACA78ADE}"/>
+    <hyperlink ref="C28" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116120" xr:uid="{A700A02E-2476-4997-993C-3E0F1C4D7C5D}"/>
+    <hyperlink ref="C29" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115988" xr:uid="{75BBD3B6-2CB4-4823-880B-67E5E8B595D7}"/>
+    <hyperlink ref="C31" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{EC8C4BEC-44E1-4B68-A75F-A13288EA882A}"/>
+    <hyperlink ref="C32" r:id="rId29" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{98CFC57B-B468-43BB-8266-1D5FBB538BF5}"/>
+    <hyperlink ref="C33" r:id="rId30" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{05B12307-A926-4FEB-BACA-0E308940BF6B}"/>
+    <hyperlink ref="C34" r:id="rId31" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{8F563E49-B80C-4889-80DA-43E548066E7E}"/>
+    <hyperlink ref="C35" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{AECC4D94-2458-4412-A8AE-F40161E3E206}"/>
+    <hyperlink ref="C36" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{0DC38332-CB9A-422D-A223-9E54DDE17E1E}"/>
+    <hyperlink ref="C37" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{89256A1C-CF97-4FF7-8306-8E4C2478DFFB}"/>
+    <hyperlink ref="C38" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{FC8A3486-E6B9-47AF-BCAF-6DF3625B8C21}"/>
+    <hyperlink ref="C39" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178" xr:uid="{BB89F7D4-ED1F-413E-932A-C10BFC3EB76E}"/>
+    <hyperlink ref="C40" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116126" xr:uid="{C4972040-9F66-412F-9AA6-1DBC01DA9453}"/>
+    <hyperlink ref="C41" r:id="rId38" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{64689099-AC25-48DD-8B24-08186DE689F2}"/>
+    <hyperlink ref="C42" r:id="rId39" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{9FD54504-FC63-499C-A1F9-A6FB3396FD00}"/>
     <hyperlink ref="C44" r:id="rId40" display="https://www.mincultura.gov.co/prensa/noticias/Documents/Poblaciones/PUEBLO UCOMAJA.pdf" xr:uid="{D5F206FB-C37F-4862-87D1-C086AA3BB48B}"/>
     <hyperlink ref="C45" r:id="rId41" display="https://www.mincultura.gov.co/areas/poblaciones/APP-de-lenguas-nativas/Documents/Estudios Carapana.pdf" xr:uid="{F1D25C79-71DA-4DFD-9655-B8C457C699CB}"/>
-    <hyperlink ref="C46" r:id="rId42" xr:uid="{4555C75A-139E-49B0-A998-A4BCF08EC9CC}"/>
-    <hyperlink ref="C47" r:id="rId43" xr:uid="{1862C9F5-F93F-452C-8D5E-079635595D28}"/>
-    <hyperlink ref="C48" r:id="rId44" xr:uid="{7712C30B-CFCB-4E2A-8ECD-4806DC7622B8}"/>
-    <hyperlink ref="C49" r:id="rId45" xr:uid="{318C61C3-1546-4CED-9D0B-BDFD72992CDC}"/>
-    <hyperlink ref="C50" r:id="rId46" xr:uid="{EFD753F2-5748-4257-BF9B-33EE4F60516F}"/>
-    <hyperlink ref="C51" r:id="rId47" xr:uid="{AE615E04-DCE4-4BC9-B128-41A41776F96B}"/>
-    <hyperlink ref="C52" r:id="rId48" xr:uid="{EA61D8D2-3ABD-4182-B181-E68571A76DBC}"/>
-    <hyperlink ref="C53" r:id="rId49" xr:uid="{77BE61CF-4137-4469-B73B-E2FD926406E7}"/>
+    <hyperlink ref="C46" r:id="rId42" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{4555C75A-139E-49B0-A998-A4BCF08EC9CC}"/>
+    <hyperlink ref="C47" r:id="rId43" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115986" xr:uid="{1862C9F5-F93F-452C-8D5E-079635595D28}"/>
+    <hyperlink ref="C48" r:id="rId44" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116119" xr:uid="{7712C30B-CFCB-4E2A-8ECD-4806DC7622B8}"/>
+    <hyperlink ref="C49" r:id="rId45" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115959" xr:uid="{318C61C3-1546-4CED-9D0B-BDFD72992CDC}"/>
+    <hyperlink ref="C50" r:id="rId46" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{EFD753F2-5748-4257-BF9B-33EE4F60516F}"/>
+    <hyperlink ref="C51" r:id="rId47" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116129" xr:uid="{AE615E04-DCE4-4BC9-B128-41A41776F96B}"/>
+    <hyperlink ref="C52" r:id="rId48" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{EA61D8D2-3ABD-4182-B181-E68571A76DBC}"/>
+    <hyperlink ref="C53" r:id="rId49" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115884" xr:uid="{77BE61CF-4137-4469-B73B-E2FD926406E7}"/>
     <hyperlink ref="C54" r:id="rId50" xr:uid="{16B29220-4FD5-4B6E-A61F-80B1E047C9AB}"/>
-    <hyperlink ref="C55" r:id="rId51" xr:uid="{8BA1EC83-42B7-436A-8ECE-1059074C36C1}"/>
-    <hyperlink ref="C56" r:id="rId52" xr:uid="{21704C14-E438-4D2C-BEAD-FA96D9E1FEC9}"/>
-    <hyperlink ref="C57" r:id="rId53" xr:uid="{52FCBF1C-6354-4E05-A29A-FD8AFDD68FF3}"/>
-    <hyperlink ref="C58" r:id="rId54" xr:uid="{7B20967D-5116-4D9D-ACA3-94026760D01D}"/>
-    <hyperlink ref="C59" r:id="rId55" xr:uid="{0C2973A1-AB4F-422E-89F4-1FBA5168CE54}"/>
-    <hyperlink ref="C60" r:id="rId56" xr:uid="{5D98626A-739E-4B47-BDF9-44AC23CBE62D}"/>
-    <hyperlink ref="C61" r:id="rId57" xr:uid="{90C579B0-8C23-4AE3-976A-9A8249CBF065}"/>
-    <hyperlink ref="C63" r:id="rId58" xr:uid="{19B9D4A0-1A77-46B7-AE00-6479470C748F}"/>
-    <hyperlink ref="C65" r:id="rId59" xr:uid="{01E1B0E1-F037-408B-97D0-D10D84CE1FCB}"/>
-    <hyperlink ref="C66" r:id="rId60" xr:uid="{7B6184AC-D257-4F52-95DA-F7D5266B2FFE}"/>
-    <hyperlink ref="C68" r:id="rId61" xr:uid="{B49E2FB5-842F-4AE5-A57B-0E3A3E05C040}"/>
-    <hyperlink ref="C71" r:id="rId62" xr:uid="{EC96AD97-F4D5-4472-88D7-C7D9FBF76684}"/>
-    <hyperlink ref="C72" r:id="rId63" xr:uid="{BD23FAD0-FD7C-486E-B03E-4D6833C5EDD7}"/>
-    <hyperlink ref="C73" r:id="rId64" xr:uid="{4D4ADE0F-8810-410E-99F9-8DD2528AAA52}"/>
-    <hyperlink ref="C75" r:id="rId65" xr:uid="{83D57C3D-EFEF-40AF-BB04-30A09A4818E1}"/>
-    <hyperlink ref="C77" r:id="rId66" xr:uid="{AFE117D0-15B5-4731-8800-3D6683BC0229}"/>
+    <hyperlink ref="C55" r:id="rId51" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116247" xr:uid="{8BA1EC83-42B7-436A-8ECE-1059074C36C1}"/>
+    <hyperlink ref="C56" r:id="rId52" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116218" xr:uid="{21704C14-E438-4D2C-BEAD-FA96D9E1FEC9}"/>
+    <hyperlink ref="C57" r:id="rId53" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116132" xr:uid="{52FCBF1C-6354-4E05-A29A-FD8AFDD68FF3}"/>
+    <hyperlink ref="C58" r:id="rId54" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906" xr:uid="{7B20967D-5116-4D9D-ACA3-94026760D01D}"/>
+    <hyperlink ref="C59" r:id="rId55" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906" xr:uid="{0C2973A1-AB4F-422E-89F4-1FBA5168CE54}"/>
+    <hyperlink ref="C60" r:id="rId56" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906" xr:uid="{5D98626A-739E-4B47-BDF9-44AC23CBE62D}"/>
+    <hyperlink ref="C61" r:id="rId57" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{90C579B0-8C23-4AE3-976A-9A8249CBF065}"/>
+    <hyperlink ref="C63" r:id="rId58" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116172" xr:uid="{19B9D4A0-1A77-46B7-AE00-6479470C748F}"/>
+    <hyperlink ref="C65" r:id="rId59" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122" xr:uid="{01E1B0E1-F037-408B-97D0-D10D84CE1FCB}"/>
+    <hyperlink ref="C66" r:id="rId60" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115863" xr:uid="{7B6184AC-D257-4F52-95DA-F7D5266B2FFE}"/>
+    <hyperlink ref="C68" r:id="rId61" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116139" xr:uid="{B49E2FB5-842F-4AE5-A57B-0E3A3E05C040}"/>
+    <hyperlink ref="C71" r:id="rId62" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{EC96AD97-F4D5-4472-88D7-C7D9FBF76684}"/>
+    <hyperlink ref="C72" r:id="rId63" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982" xr:uid="{BD23FAD0-FD7C-486E-B03E-4D6833C5EDD7}"/>
+    <hyperlink ref="C73" r:id="rId64" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982" xr:uid="{4D4ADE0F-8810-410E-99F9-8DD2528AAA52}"/>
+    <hyperlink ref="C75" r:id="rId65" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{83D57C3D-EFEF-40AF-BB04-30A09A4818E1}"/>
+    <hyperlink ref="C77" r:id="rId66" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115852" xr:uid="{AFE117D0-15B5-4731-8800-3D6683BC0229}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5094,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536B4927-D03F-4B09-8197-1EADB2AC6519}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,501 +5114,501 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>135</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>23</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>235</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>237</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>673</v>
+        <v>556</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>153</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>674</v>
+        <v>557</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>239</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>675</v>
+        <v>558</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>676</v>
+        <v>559</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>173</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>244</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>677</v>
+        <v>560</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>186</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>678</v>
+        <v>561</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>63</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>679</v>
+        <v>562</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>680</v>
+        <v>563</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>681</v>
+        <v>564</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>239</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>682</v>
+        <v>565</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>685</v>
+        <v>568</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>686</v>
+        <v>569</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>683</v>
+        <v>566</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>213</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>94</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>220</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>687</v>
+        <v>570</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>262</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>113</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>123</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" xr:uid="{2904AC9D-6F24-42CB-AB85-84C1A251EECA}"/>
+    <hyperlink ref="C47" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116253" xr:uid="{2904AC9D-6F24-42CB-AB85-84C1A251EECA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5621,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37A29F5-FAB3-446E-8E03-D1D82227CA04}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,1395 +5640,1395 @@
     </row>
     <row r="2" spans="1:3" ht="192" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>269</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>143</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>23</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>282</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>153</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>289</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>292</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>157</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>39</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>289</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>162</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>305</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>166</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>316</v>
+        <v>665</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>50</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>48</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>186</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>63</v>
+        <v>648</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>334</v>
+        <v>667</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>211</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>354</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>356</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>78</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>365</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="C89" s="31"/>
     </row>
     <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>216</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>48</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>371</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>373</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>376</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>378</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>220</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>381</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>384</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>388</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>390</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>48</v>
+        <v>666</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>113</v>
+        <v>672</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>115</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>118</v>
+        <v>641</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>123</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A118" s="34" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="C118" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E80CCFB-4D5F-4694-ADBC-5939612ACF24}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{0B9B8532-2F0E-472B-919F-382D6BE41B00}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{7F712C35-D9FE-4608-AD05-FB6E04625324}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{298DC72C-99A7-4DE9-9532-009912BD5982}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{403431D2-BF54-4A44-B153-648F198D8C0C}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B55BAF13-4DB0-4DA0-9650-C5EB325269F1}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{49BBEEA5-E20A-4B48-9FAE-B7BD681ECD4D}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{3344A3BB-F1E7-4DF9-A3F2-B5F567363DFC}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{1E748696-5CE5-4914-AB16-8E79B14BD64B}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{70A5F4CF-ACF8-48AA-9111-047A19E5BE8C}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{B5EEB46B-011F-478D-B8F6-C91C94C34A92}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{B26939AD-E7FC-46EF-B306-9594F656F683}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{18D72EF1-C321-4B64-92A2-EE97A8222D4C}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{D2AB9DC8-D3EC-459D-9BE5-99AB5C573890}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{E5B84634-F2C1-4216-9620-72BBEC379B72}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{4AEA93E3-C961-4141-94E9-3A3AF02EB79B}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115915" xr:uid="{9E80CCFB-4D5F-4694-ADBC-5939612ACF24}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{0B9B8532-2F0E-472B-919F-382D6BE41B00}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{7F712C35-D9FE-4608-AD05-FB6E04625324}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{298DC72C-99A7-4DE9-9532-009912BD5982}"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{403431D2-BF54-4A44-B153-648F198D8C0C}"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116141" xr:uid="{B55BAF13-4DB0-4DA0-9650-C5EB325269F1}"/>
+    <hyperlink ref="C8" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{49BBEEA5-E20A-4B48-9FAE-B7BD681ECD4D}"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{3344A3BB-F1E7-4DF9-A3F2-B5F567363DFC}"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{1E748696-5CE5-4914-AB16-8E79B14BD64B}"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116133" xr:uid="{70A5F4CF-ACF8-48AA-9111-047A19E5BE8C}"/>
+    <hyperlink ref="C12" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115826" xr:uid="{B5EEB46B-011F-478D-B8F6-C91C94C34A92}"/>
+    <hyperlink ref="C13" r:id="rId12" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{B26939AD-E7FC-46EF-B306-9594F656F683}"/>
+    <hyperlink ref="C14" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{18D72EF1-C321-4B64-92A2-EE97A8222D4C}"/>
+    <hyperlink ref="C15" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{D2AB9DC8-D3EC-459D-9BE5-99AB5C573890}"/>
+    <hyperlink ref="C16" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{E5B84634-F2C1-4216-9620-72BBEC379B72}"/>
+    <hyperlink ref="C17" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116116" xr:uid="{4AEA93E3-C961-4141-94E9-3A3AF02EB79B}"/>
     <hyperlink ref="C18" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{0422DEB6-CCA3-4322-A874-8A012649AFBB}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{A5717DF6-25A4-47F1-B52A-3BFA87B82BB1}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{77CC855C-47B2-49FA-A761-39DBF353AE05}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{FF301EF9-DA6D-4841-8D63-3FA60B17FC0E}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{E1ECE728-3FF4-4BC0-AE71-09958EE4BF04}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{EA47277F-4A58-4498-B8D2-6CB7379664F1}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{62147DA8-5FAB-40B9-B8C2-49678B076069}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{1A664789-0300-4DB3-AC6F-61228C828D36}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{1164889E-F7BD-4F5C-ADDD-EB05B7D86A7E}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{C408905E-E272-407F-9597-54C27AB5A38D}"/>
+    <hyperlink ref="C19" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{A5717DF6-25A4-47F1-B52A-3BFA87B82BB1}"/>
+    <hyperlink ref="C20" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888" xr:uid="{77CC855C-47B2-49FA-A761-39DBF353AE05}"/>
+    <hyperlink ref="C21" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{FF301EF9-DA6D-4841-8D63-3FA60B17FC0E}"/>
+    <hyperlink ref="C22" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116137" xr:uid="{E1ECE728-3FF4-4BC0-AE71-09958EE4BF04}"/>
+    <hyperlink ref="C23" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{EA47277F-4A58-4498-B8D2-6CB7379664F1}"/>
+    <hyperlink ref="C24" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{62147DA8-5FAB-40B9-B8C2-49678B076069}"/>
+    <hyperlink ref="C25" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{1A664789-0300-4DB3-AC6F-61228C828D36}"/>
+    <hyperlink ref="C26" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115872" xr:uid="{1164889E-F7BD-4F5C-ADDD-EB05B7D86A7E}"/>
+    <hyperlink ref="C27" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{C408905E-E272-407F-9597-54C27AB5A38D}"/>
     <hyperlink ref="C28" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{8C0EEA11-1562-4D2D-936B-6242FC8C244E}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{D7B7610F-B769-4CF4-9F28-566F3D6DB24B}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{107EEC2A-3505-46E5-873A-44C70F72C0A2}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{AF090130-F855-4928-8940-E4DA127D6E0D}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{A7FCF125-A491-4C6D-B6CC-712E643E2B36}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{60C6B85E-2B36-49DA-8258-3C7CBC35A874}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{59F7A060-FD90-4404-92FB-B95189A573F7}"/>
-    <hyperlink ref="C36" r:id="rId34" xr:uid="{383518A0-40B9-4B7A-984B-CDDD9ECA08B2}"/>
-    <hyperlink ref="C37" r:id="rId35" xr:uid="{919EC531-4B5F-4B45-BB9A-A32D53C25DD0}"/>
-    <hyperlink ref="C38" r:id="rId36" xr:uid="{1B949406-5719-4FD3-9F64-0C7DBE0EE70D}"/>
-    <hyperlink ref="C39" r:id="rId37" xr:uid="{F99A933F-E6D0-4E98-B55D-0375A4C2A216}"/>
-    <hyperlink ref="C40" r:id="rId38" xr:uid="{F9782EA0-F8E3-4890-BABD-AD961824DE4B}"/>
-    <hyperlink ref="C41" r:id="rId39" xr:uid="{8E1244DC-93AA-4148-80E5-2DB01F465A4C}"/>
-    <hyperlink ref="C42" r:id="rId40" xr:uid="{6FA6002A-07CF-49E9-B288-A67073F4E81A}"/>
-    <hyperlink ref="C43" r:id="rId41" xr:uid="{FF31D4F6-52A4-4FC0-ABEF-2C263E1E988A}"/>
-    <hyperlink ref="C44" r:id="rId42" xr:uid="{41482FB7-79A6-4D67-96B9-F912A5A9A6C6}"/>
-    <hyperlink ref="C45" r:id="rId43" xr:uid="{A25017DC-006F-4DB6-A954-4BE0CF5BA559}"/>
-    <hyperlink ref="C46" r:id="rId44" xr:uid="{8C26FE6D-E22D-4D11-8C7F-22E11B198F60}"/>
-    <hyperlink ref="C48" r:id="rId45" xr:uid="{3AE19876-D1F3-4138-B770-110BDF18A356}"/>
-    <hyperlink ref="C49" r:id="rId46" xr:uid="{71F00B48-EFFA-44B3-96B7-A312FEB4E43D}"/>
-    <hyperlink ref="C50" r:id="rId47" xr:uid="{87F1DCD4-A35A-4954-968C-644B586B71AE}"/>
-    <hyperlink ref="C51" r:id="rId48" xr:uid="{FA22281E-964E-471B-B5E3-F614E3353B39}"/>
-    <hyperlink ref="C52" r:id="rId49" xr:uid="{98E30BFF-5527-4A9E-8C1B-8F46387FD945}"/>
-    <hyperlink ref="C53" r:id="rId50" xr:uid="{CA50915E-E6E9-4A34-8A51-37D029BA72A2}"/>
-    <hyperlink ref="C54" r:id="rId51" xr:uid="{6EF54243-34A0-4DF3-B9C6-C41D028DCCA1}"/>
-    <hyperlink ref="C55" r:id="rId52" xr:uid="{E06128F0-C3FD-467F-BC52-4F436C581F6F}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{205ABCE6-6A04-460E-B792-DAA4EB22ADD0}"/>
-    <hyperlink ref="C57" r:id="rId54" xr:uid="{9F083C80-5CA6-4D70-A725-EC6034C8D196}"/>
-    <hyperlink ref="C58" r:id="rId55" xr:uid="{331952F6-BC29-4149-ACFB-E9D6A451ADF3}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{14133AAB-8DE9-4228-98BD-311D5124C414}"/>
-    <hyperlink ref="C60" r:id="rId57" xr:uid="{1F5C0AAA-1C81-4A1B-A802-82DC01A7FABC}"/>
-    <hyperlink ref="C61" r:id="rId58" xr:uid="{5089C5AB-D46E-465B-96E1-83EB469676EF}"/>
-    <hyperlink ref="C62" r:id="rId59" xr:uid="{8BBB4899-455B-4EC6-A294-BF79E6CD7EEF}"/>
-    <hyperlink ref="C63" r:id="rId60" xr:uid="{C4652F68-7FC1-42C8-90DE-28BA5FE06D48}"/>
-    <hyperlink ref="C64" r:id="rId61" xr:uid="{5DBE8483-8F4B-4476-BCD4-75F7AB0527F6}"/>
-    <hyperlink ref="C65" r:id="rId62" xr:uid="{89918AFB-38F1-4FDA-9E4F-D6ACAC1751A2}"/>
-    <hyperlink ref="C66" r:id="rId63" xr:uid="{EBE193A7-0EFB-4A0A-AAF1-9100B8D50769}"/>
-    <hyperlink ref="C68" r:id="rId64" xr:uid="{AE155880-3C2D-4083-9A3F-6855DCBE8AB7}"/>
-    <hyperlink ref="C69" r:id="rId65" xr:uid="{9D93CA0B-D0D2-4F6F-A9A2-0C77C67E0A47}"/>
-    <hyperlink ref="C70" r:id="rId66" xr:uid="{17E65819-332E-4020-9244-52ADBD788BDD}"/>
-    <hyperlink ref="C71" r:id="rId67" xr:uid="{E6D6AF9F-080B-4337-9C62-FC432F7998E4}"/>
-    <hyperlink ref="C72" r:id="rId68" xr:uid="{C01BDC23-53B3-4EBC-BC1F-F70C410AA1D7}"/>
-    <hyperlink ref="C73" r:id="rId69" xr:uid="{FB5DCEBC-566C-43A2-AA22-8039DBDA1B32}"/>
-    <hyperlink ref="C74" r:id="rId70" xr:uid="{FB3871A9-41CE-4208-B6F3-0BD56E5DB8F4}"/>
-    <hyperlink ref="C75" r:id="rId71" xr:uid="{60CD2CB0-88FC-40FB-8AF9-FD7B2A8ACEDB}"/>
-    <hyperlink ref="C76" r:id="rId72" xr:uid="{7485B39C-4729-4B93-AB26-6231B611A738}"/>
-    <hyperlink ref="C77" r:id="rId73" xr:uid="{FC0F7936-B769-4DA5-8869-2A9A1C4A23F5}"/>
-    <hyperlink ref="C78" r:id="rId74" xr:uid="{FF64ACFA-3EA4-4358-9DEB-8093EF9C7E73}"/>
-    <hyperlink ref="C79" r:id="rId75" xr:uid="{5FB4AC29-A7AB-4AB8-88CF-9B82B70B7FAC}"/>
-    <hyperlink ref="C80" r:id="rId76" xr:uid="{BCD4FC1F-65A5-4466-9460-75904F5C273D}"/>
-    <hyperlink ref="C81" r:id="rId77" xr:uid="{07A34244-FF5D-41A3-9488-757D1A4D3528}"/>
-    <hyperlink ref="C82" r:id="rId78" xr:uid="{24D8B461-D9BD-459C-A99A-ECBE9403EFDE}"/>
-    <hyperlink ref="C83" r:id="rId79" xr:uid="{A0BABA7F-2BFE-44BC-AEB1-60095E763613}"/>
-    <hyperlink ref="C85" r:id="rId80" xr:uid="{63C78297-82D5-4F83-A25B-5D5513945637}"/>
-    <hyperlink ref="C86" r:id="rId81" xr:uid="{7726C46B-309D-427E-93CC-8FAB9ADE423A}"/>
-    <hyperlink ref="C87" r:id="rId82" xr:uid="{918D4504-DABA-4677-9AE6-ADEC0CE9BD7D}"/>
-    <hyperlink ref="C88" r:id="rId83" xr:uid="{564F9EC0-1C8D-4873-ACA3-3FF32144BF0E}"/>
-    <hyperlink ref="C90" r:id="rId84" xr:uid="{A4ABD7A4-45D6-4223-8A57-8FAA1C1AD627}"/>
-    <hyperlink ref="C91" r:id="rId85" xr:uid="{6CC27601-51E8-4399-A730-FE0C3F4A746D}"/>
+    <hyperlink ref="C29" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116156" xr:uid="{D7B7610F-B769-4CF4-9F28-566F3D6DB24B}"/>
+    <hyperlink ref="C30" r:id="rId29" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{107EEC2A-3505-46E5-873A-44C70F72C0A2}"/>
+    <hyperlink ref="C31" r:id="rId30" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116135" xr:uid="{AF090130-F855-4928-8940-E4DA127D6E0D}"/>
+    <hyperlink ref="C32" r:id="rId31" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116111" xr:uid="{A7FCF125-A491-4C6D-B6CC-712E643E2B36}"/>
+    <hyperlink ref="C33" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{60C6B85E-2B36-49DA-8258-3C7CBC35A874}"/>
+    <hyperlink ref="C35" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{59F7A060-FD90-4404-92FB-B95189A573F7}"/>
+    <hyperlink ref="C36" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116102" xr:uid="{383518A0-40B9-4B7A-984B-CDDD9ECA08B2}"/>
+    <hyperlink ref="C37" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{919EC531-4B5F-4B45-BB9A-A32D53C25DD0}"/>
+    <hyperlink ref="C38" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{1B949406-5719-4FD3-9F64-0C7DBE0EE70D}"/>
+    <hyperlink ref="C39" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116120" xr:uid="{F99A933F-E6D0-4E98-B55D-0375A4C2A216}"/>
+    <hyperlink ref="C40" r:id="rId38" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{F9782EA0-F8E3-4890-BABD-AD961824DE4B}"/>
+    <hyperlink ref="C41" r:id="rId39" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208" xr:uid="{8E1244DC-93AA-4148-80E5-2DB01F465A4C}"/>
+    <hyperlink ref="C42" r:id="rId40" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115985" xr:uid="{6FA6002A-07CF-49E9-B288-A67073F4E81A}"/>
+    <hyperlink ref="C43" r:id="rId41" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{FF31D4F6-52A4-4FC0-ABEF-2C263E1E988A}"/>
+    <hyperlink ref="C44" r:id="rId42" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{41482FB7-79A6-4D67-96B9-F912A5A9A6C6}"/>
+    <hyperlink ref="C45" r:id="rId43" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{A25017DC-006F-4DB6-A954-4BE0CF5BA559}"/>
+    <hyperlink ref="C46" r:id="rId44" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{8C26FE6D-E22D-4D11-8C7F-22E11B198F60}"/>
+    <hyperlink ref="C48" r:id="rId45" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116123" xr:uid="{3AE19876-D1F3-4138-B770-110BDF18A356}"/>
+    <hyperlink ref="C49" r:id="rId46" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{71F00B48-EFFA-44B3-96B7-A312FEB4E43D}"/>
+    <hyperlink ref="C50" r:id="rId47" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{87F1DCD4-A35A-4954-968C-644B586B71AE}"/>
+    <hyperlink ref="C51" r:id="rId48" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{FA22281E-964E-471B-B5E3-F614E3353B39}"/>
+    <hyperlink ref="C52" r:id="rId49" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116126" xr:uid="{98E30BFF-5527-4A9E-8C1B-8F46387FD945}"/>
+    <hyperlink ref="C53" r:id="rId50" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{CA50915E-E6E9-4A34-8A51-37D029BA72A2}"/>
+    <hyperlink ref="C54" r:id="rId51" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{6EF54243-34A0-4DF3-B9C6-C41D028DCCA1}"/>
+    <hyperlink ref="C55" r:id="rId52" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{E06128F0-C3FD-467F-BC52-4F436C581F6F}"/>
+    <hyperlink ref="C56" r:id="rId53" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{205ABCE6-6A04-460E-B792-DAA4EB22ADD0}"/>
+    <hyperlink ref="C57" r:id="rId54" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116159" xr:uid="{9F083C80-5CA6-4D70-A725-EC6034C8D196}"/>
+    <hyperlink ref="C58" r:id="rId55" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128" xr:uid="{331952F6-BC29-4149-ACFB-E9D6A451ADF3}"/>
+    <hyperlink ref="C59" r:id="rId56" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{14133AAB-8DE9-4228-98BD-311D5124C414}"/>
+    <hyperlink ref="C60" r:id="rId57" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115918" xr:uid="{1F5C0AAA-1C81-4A1B-A802-82DC01A7FABC}"/>
+    <hyperlink ref="C61" r:id="rId58" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{5089C5AB-D46E-465B-96E1-83EB469676EF}"/>
+    <hyperlink ref="C62" r:id="rId59" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{8BBB4899-455B-4EC6-A294-BF79E6CD7EEF}"/>
+    <hyperlink ref="C63" r:id="rId60" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115959" xr:uid="{C4652F68-7FC1-42C8-90DE-28BA5FE06D48}"/>
+    <hyperlink ref="C64" r:id="rId61" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116119" xr:uid="{5DBE8483-8F4B-4476-BCD4-75F7AB0527F6}"/>
+    <hyperlink ref="C65" r:id="rId62" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{89918AFB-38F1-4FDA-9E4F-D6ACAC1751A2}"/>
+    <hyperlink ref="C66" r:id="rId63" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{EBE193A7-0EFB-4A0A-AAF1-9100B8D50769}"/>
+    <hyperlink ref="C68" r:id="rId64" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{AE155880-3C2D-4083-9A3F-6855DCBE8AB7}"/>
+    <hyperlink ref="C69" r:id="rId65" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116129" xr:uid="{9D93CA0B-D0D2-4F6F-A9A2-0C77C67E0A47}"/>
+    <hyperlink ref="C70" r:id="rId66" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116260" xr:uid="{17E65819-332E-4020-9244-52ADBD788BDD}"/>
+    <hyperlink ref="C71" r:id="rId67" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{E6D6AF9F-080B-4337-9C62-FC432F7998E4}"/>
+    <hyperlink ref="C72" r:id="rId68" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{C01BDC23-53B3-4EBC-BC1F-F70C410AA1D7}"/>
+    <hyperlink ref="C73" r:id="rId69" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116117" xr:uid="{FB5DCEBC-566C-43A2-AA22-8039DBDA1B32}"/>
+    <hyperlink ref="C74" r:id="rId70" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{FB3871A9-41CE-4208-B6F3-0BD56E5DB8F4}"/>
+    <hyperlink ref="C75" r:id="rId71" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{60CD2CB0-88FC-40FB-8AF9-FD7B2A8ACEDB}"/>
+    <hyperlink ref="C76" r:id="rId72" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116132" xr:uid="{7485B39C-4729-4B93-AB26-6231B611A738}"/>
+    <hyperlink ref="C77" r:id="rId73" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{FC0F7936-B769-4DA5-8869-2A9A1C4A23F5}"/>
+    <hyperlink ref="C78" r:id="rId74" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116227" xr:uid="{FF64ACFA-3EA4-4358-9DEB-8093EF9C7E73}"/>
+    <hyperlink ref="C79" r:id="rId75" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115877" xr:uid="{5FB4AC29-A7AB-4AB8-88CF-9B82B70B7FAC}"/>
+    <hyperlink ref="C80" r:id="rId76" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{BCD4FC1F-65A5-4466-9460-75904F5C273D}"/>
+    <hyperlink ref="C81" r:id="rId77" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130" xr:uid="{07A34244-FF5D-41A3-9488-757D1A4D3528}"/>
+    <hyperlink ref="C82" r:id="rId78" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{24D8B461-D9BD-459C-A99A-ECBE9403EFDE}"/>
+    <hyperlink ref="C83" r:id="rId79" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115906" xr:uid="{A0BABA7F-2BFE-44BC-AEB1-60095E763613}"/>
+    <hyperlink ref="C85" r:id="rId80" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{63C78297-82D5-4F83-A25B-5D5513945637}"/>
+    <hyperlink ref="C86" r:id="rId81" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{7726C46B-309D-427E-93CC-8FAB9ADE423A}"/>
+    <hyperlink ref="C87" r:id="rId82" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116134" xr:uid="{918D4504-DABA-4677-9AE6-ADEC0CE9BD7D}"/>
+    <hyperlink ref="C88" r:id="rId83" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{564F9EC0-1C8D-4873-ACA3-3FF32144BF0E}"/>
+    <hyperlink ref="C90" r:id="rId84" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{A4ABD7A4-45D6-4223-8A57-8FAA1C1AD627}"/>
+    <hyperlink ref="C91" r:id="rId85" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122" xr:uid="{6CC27601-51E8-4399-A730-FE0C3F4A746D}"/>
     <hyperlink ref="C92" r:id="rId86" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122" xr:uid="{51737DF3-907A-4145-B665-2378B7481B9D}"/>
-    <hyperlink ref="C93" r:id="rId87" xr:uid="{A82AEE6D-5B6F-4CB5-9EEF-9A95610BEFA4}"/>
-    <hyperlink ref="C94" r:id="rId88" xr:uid="{7402F5C7-A2FE-4848-B2B1-F50A65D33E96}"/>
-    <hyperlink ref="C95" r:id="rId89" xr:uid="{BD07A7BC-6EC3-48A5-825F-B8905DD651AD}"/>
-    <hyperlink ref="C96" r:id="rId90" xr:uid="{17BAB6AF-049D-45F7-9B90-1324AA98FA52}"/>
-    <hyperlink ref="C97" r:id="rId91" xr:uid="{64676E21-D524-45EC-B6C1-1E72B716BA6B}"/>
-    <hyperlink ref="C98" r:id="rId92" xr:uid="{FF1D5947-0D46-4F4F-BC5D-E20F26B1A65E}"/>
-    <hyperlink ref="C99" r:id="rId93" xr:uid="{8876BBBF-B121-4056-ABFE-52FC7ADFE315}"/>
-    <hyperlink ref="C100" r:id="rId94" xr:uid="{2270B3E2-C444-4988-B8F2-1DF2B8B6C524}"/>
-    <hyperlink ref="C102" r:id="rId95" xr:uid="{322E5BFA-5AE6-45FD-83C8-A15745DE6AC3}"/>
-    <hyperlink ref="C103" r:id="rId96" xr:uid="{A2863B2C-C7D6-4375-828E-84EE843CAE05}"/>
-    <hyperlink ref="C104" r:id="rId97" xr:uid="{BF3D1AFF-B9CB-4366-AFC5-07098F876532}"/>
-    <hyperlink ref="C105" r:id="rId98" xr:uid="{BEB31D54-5102-4955-BC8E-45776E22FE2D}"/>
-    <hyperlink ref="C106" r:id="rId99" xr:uid="{2FB5E981-4F0B-4FBB-96F9-22A5284D42A7}"/>
+    <hyperlink ref="C93" r:id="rId87" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115936" xr:uid="{A82AEE6D-5B6F-4CB5-9EEF-9A95610BEFA4}"/>
+    <hyperlink ref="C94" r:id="rId88" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109" xr:uid="{7402F5C7-A2FE-4848-B2B1-F50A65D33E96}"/>
+    <hyperlink ref="C95" r:id="rId89" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{BD07A7BC-6EC3-48A5-825F-B8905DD651AD}"/>
+    <hyperlink ref="C96" r:id="rId90" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183" xr:uid="{17BAB6AF-049D-45F7-9B90-1324AA98FA52}"/>
+    <hyperlink ref="C97" r:id="rId91" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115823" xr:uid="{64676E21-D524-45EC-B6C1-1E72B716BA6B}"/>
+    <hyperlink ref="C98" r:id="rId92" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{FF1D5947-0D46-4F4F-BC5D-E20F26B1A65E}"/>
+    <hyperlink ref="C99" r:id="rId93" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116139" xr:uid="{8876BBBF-B121-4056-ABFE-52FC7ADFE315}"/>
+    <hyperlink ref="C100" r:id="rId94" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116259" xr:uid="{2270B3E2-C444-4988-B8F2-1DF2B8B6C524}"/>
+    <hyperlink ref="C102" r:id="rId95" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116131" xr:uid="{322E5BFA-5AE6-45FD-83C8-A15745DE6AC3}"/>
+    <hyperlink ref="C103" r:id="rId96" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{A2863B2C-C7D6-4375-828E-84EE843CAE05}"/>
+    <hyperlink ref="C104" r:id="rId97" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{BF3D1AFF-B9CB-4366-AFC5-07098F876532}"/>
+    <hyperlink ref="C105" r:id="rId98" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943" xr:uid="{BEB31D54-5102-4955-BC8E-45776E22FE2D}"/>
+    <hyperlink ref="C106" r:id="rId99" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116238" xr:uid="{2FB5E981-4F0B-4FBB-96F9-22A5284D42A7}"/>
     <hyperlink ref="C107" r:id="rId100" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{10D4038B-91CD-49FA-A7AF-C4FA56CA7A04}"/>
-    <hyperlink ref="C108" r:id="rId101" xr:uid="{628616B1-566E-4A76-944F-6B8EB21BCB45}"/>
-    <hyperlink ref="C109" r:id="rId102" xr:uid="{C4BAE804-ECBE-4968-B257-9A611D1553A7}"/>
-    <hyperlink ref="C110" r:id="rId103" xr:uid="{B439B48F-539B-410E-8AD6-3E39E8DECEB4}"/>
-    <hyperlink ref="C111" r:id="rId104" xr:uid="{7BDF4DC1-151A-4442-8981-F8570BD1A871}"/>
-    <hyperlink ref="C112" r:id="rId105" xr:uid="{CE440677-900D-4007-A937-C54D4C00BF06}"/>
-    <hyperlink ref="C113" r:id="rId106" xr:uid="{58D0CE18-8543-4C54-AF06-7E4885741761}"/>
-    <hyperlink ref="C114" r:id="rId107" xr:uid="{21CD620A-2FB0-459D-801B-79FCA0B06B73}"/>
-    <hyperlink ref="C115" r:id="rId108" xr:uid="{9E7C10CC-14C9-4355-9731-B21C2E2D9E2C}"/>
-    <hyperlink ref="C116" r:id="rId109" xr:uid="{AC827C94-9008-48F1-A000-039DDD1B697D}"/>
-    <hyperlink ref="C117" r:id="rId110" xr:uid="{6DB2AB3D-2CE8-48FB-AA27-8CCE3AA6C929}"/>
+    <hyperlink ref="C108" r:id="rId101" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{628616B1-566E-4A76-944F-6B8EB21BCB45}"/>
+    <hyperlink ref="C109" r:id="rId102" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{C4BAE804-ECBE-4968-B257-9A611D1553A7}"/>
+    <hyperlink ref="C110" r:id="rId103" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115982" xr:uid="{B439B48F-539B-410E-8AD6-3E39E8DECEB4}"/>
+    <hyperlink ref="C111" r:id="rId104" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116138" xr:uid="{7BDF4DC1-151A-4442-8981-F8570BD1A871}"/>
+    <hyperlink ref="C112" r:id="rId105" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{CE440677-900D-4007-A937-C54D4C00BF06}"/>
+    <hyperlink ref="C113" r:id="rId106" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216" xr:uid="{58D0CE18-8543-4C54-AF06-7E4885741761}"/>
+    <hyperlink ref="C114" r:id="rId107" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116118" xr:uid="{21CD620A-2FB0-459D-801B-79FCA0B06B73}"/>
+    <hyperlink ref="C115" r:id="rId108" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{9E7C10CC-14C9-4355-9731-B21C2E2D9E2C}"/>
+    <hyperlink ref="C116" r:id="rId109" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115852" xr:uid="{AC827C94-9008-48F1-A000-039DDD1B697D}"/>
+    <hyperlink ref="C117" r:id="rId110" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{6DB2AB3D-2CE8-48FB-AA27-8CCE3AA6C929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7041,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9466E-9A58-4F75-AF43-D8E69D06578E}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B62" sqref="A62:XFD67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7064,718 +7061,718 @@
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>137</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>135</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>292</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>409</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="319.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>50</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>184</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>196</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>434</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>435</v>
+        <v>342</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>436</v>
+        <v>343</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>438</v>
+        <v>345</v>
       </c>
       <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>439</v>
+        <v>346</v>
       </c>
       <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>441</v>
+        <v>348</v>
       </c>
       <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>448</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>451</v>
+        <v>655</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="192" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>453</v>
+        <v>656</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>456</v>
+        <v>359</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>457</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>459</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>462</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>388</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>462</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>462</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
       <c r="C60" s="31"/>
     </row>
     <row r="61" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>688</v>
+        <v>571</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>118</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C462D0EB-F6A2-41F2-8757-9AD198CE647D}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{105E7692-DAD8-4F1A-8A15-335F8F6797C0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A5017FAD-8032-4B82-BDAA-790F11A018BD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{AA9A004C-FE24-43F8-9C5B-F3D92185883F}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{BADE6F8C-C5C0-4CA0-B23F-0DBE90E83A25}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{D10B8A54-329E-498C-9BB1-88CD99674A10}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{6F08E848-C91A-497E-B3E4-983DB26423BC}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{2148F8F0-52F8-4FC7-AF3F-DFCE90C112E8}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{26E609F0-5316-4616-BBAD-8E7FCBE9F4DD}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{3EE5C06E-2FB6-4A83-B56E-41BB378D10ED}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{FB4A880E-493E-4267-9868-AB40A2A29C6F}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{721EFD9A-EE6B-41E1-8920-9500FD7EC38A}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{FAB1B0E9-1DFA-446F-AA7A-3117C5CAC913}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{4786E536-84AD-48B7-9FB4-A589724826E1}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{C462D0EB-F6A2-41F2-8757-9AD198CE647D}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116207" xr:uid="{105E7692-DAD8-4F1A-8A15-335F8F6797C0}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140" xr:uid="{A5017FAD-8032-4B82-BDAA-790F11A018BD}"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{AA9A004C-FE24-43F8-9C5B-F3D92185883F}"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888" xr:uid="{BADE6F8C-C5C0-4CA0-B23F-0DBE90E83A25}"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213" xr:uid="{D10B8A54-329E-498C-9BB1-88CD99674A10}"/>
+    <hyperlink ref="C10" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208" xr:uid="{6F08E848-C91A-497E-B3E4-983DB26423BC}"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208" xr:uid="{2148F8F0-52F8-4FC7-AF3F-DFCE90C112E8}"/>
+    <hyperlink ref="C12" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116206" xr:uid="{26E609F0-5316-4616-BBAD-8E7FCBE9F4DD}"/>
+    <hyperlink ref="C13" r:id="rId10" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{3EE5C06E-2FB6-4A83-B56E-41BB378D10ED}"/>
+    <hyperlink ref="C14" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{FB4A880E-493E-4267-9868-AB40A2A29C6F}"/>
+    <hyperlink ref="C15" r:id="rId12" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178" xr:uid="{721EFD9A-EE6B-41E1-8920-9500FD7EC38A}"/>
+    <hyperlink ref="C16" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{FAB1B0E9-1DFA-446F-AA7A-3117C5CAC913}"/>
+    <hyperlink ref="C17" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116210" xr:uid="{4786E536-84AD-48B7-9FB4-A589724826E1}"/>
     <hyperlink ref="C18" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116210" xr:uid="{08BF53DB-CEF8-46C6-AA93-505DC001EA03}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{F8E9F6C0-A7B9-49A7-9A66-31B783C06502}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{B2A2A4EA-96F7-480C-BD32-89A2B4E47DF5}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{75B1AEAD-977D-4CA2-B2B3-7BF28104AE4D}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{3C4BD237-EE04-4217-B55F-3D221F2F9C8F}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{DEF032DE-1854-4A9F-85CC-006AE658A2C7}"/>
+    <hyperlink ref="C19" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916" xr:uid="{F8E9F6C0-A7B9-49A7-9A66-31B783C06502}"/>
+    <hyperlink ref="C20" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{B2A2A4EA-96F7-480C-BD32-89A2B4E47DF5}"/>
+    <hyperlink ref="C21" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128" xr:uid="{75B1AEAD-977D-4CA2-B2B3-7BF28104AE4D}"/>
+    <hyperlink ref="C22" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115986" xr:uid="{3C4BD237-EE04-4217-B55F-3D221F2F9C8F}"/>
+    <hyperlink ref="C23" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{DEF032DE-1854-4A9F-85CC-006AE658A2C7}"/>
     <hyperlink ref="C24" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{AA88E064-B435-4BD2-9632-1B40F994779E}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{192AF36D-9ACF-457B-996B-5CDD83B72729}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{3AD13A08-EABF-4162-9604-C61B20F19AAC}"/>
+    <hyperlink ref="C25" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{192AF36D-9ACF-457B-996B-5CDD83B72729}"/>
+    <hyperlink ref="C26" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{3AD13A08-EABF-4162-9604-C61B20F19AAC}"/>
     <hyperlink ref="C27" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{4B862A3C-5893-4696-9C14-14B8C62A57B0}"/>
-    <hyperlink ref="C30" r:id="rId25" xr:uid="{21835202-9AC8-4E01-8FFC-B69E1BEA5BDC}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{7ACE5F49-9234-49D6-8908-CC7AAAD9BB09}"/>
+    <hyperlink ref="C30" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211" xr:uid="{21835202-9AC8-4E01-8FFC-B69E1BEA5BDC}"/>
+    <hyperlink ref="C31" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211" xr:uid="{7ACE5F49-9234-49D6-8908-CC7AAAD9BB09}"/>
     <hyperlink ref="C32" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211" xr:uid="{CB2C5334-914A-4C26-B212-1B37F781841A}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{E9F9D16C-59A4-43AF-A17B-AB83A1EFEC56}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{95BE766A-227A-49EA-ABE9-FEC38CC04D15}"/>
-    <hyperlink ref="C39" r:id="rId30" xr:uid="{A9082083-CFBF-4A62-9DE7-6150665D41EE}"/>
-    <hyperlink ref="C47" r:id="rId31" xr:uid="{EA9A82D1-3ECE-4171-9FE9-BFE487D98FB4}"/>
+    <hyperlink ref="C33" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130" xr:uid="{E9F9D16C-59A4-43AF-A17B-AB83A1EFEC56}"/>
+    <hyperlink ref="C34" r:id="rId29" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{95BE766A-227A-49EA-ABE9-FEC38CC04D15}"/>
+    <hyperlink ref="C39" r:id="rId30" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{A9082083-CFBF-4A62-9DE7-6150665D41EE}"/>
+    <hyperlink ref="C47" r:id="rId31" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{EA9A82D1-3ECE-4171-9FE9-BFE487D98FB4}"/>
     <hyperlink ref="C48" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{268A3B78-D96B-48EA-A4B0-28ADABF42098}"/>
     <hyperlink ref="C49" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{FA2F6E11-8E7C-42C2-977E-61D3EBC24D86}"/>
     <hyperlink ref="C50" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{6B651090-448A-40B5-999B-53918894765F}"/>
     <hyperlink ref="C51" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{D6C78F0F-7F2F-49C7-85AA-F44E343F7067}"/>
-    <hyperlink ref="C52" r:id="rId36" xr:uid="{5BE22E35-84A4-436D-8B5F-AE8D0DDBFB67}"/>
-    <hyperlink ref="C53" r:id="rId37" xr:uid="{9C000A67-4F84-4983-914F-1B6CF5CA1489}"/>
-    <hyperlink ref="C54" r:id="rId38" xr:uid="{DF729926-50E1-451C-A5F6-66C9D8ECA7AB}"/>
-    <hyperlink ref="C55" r:id="rId39" xr:uid="{4831645C-AFE6-470E-9F2D-6D2EF2DAB3FE}"/>
-    <hyperlink ref="C56" r:id="rId40" xr:uid="{0FB130FC-C123-4739-BA4E-8C37A73CE450}"/>
-    <hyperlink ref="C57" r:id="rId41" xr:uid="{A9F795CE-A777-4EB1-A942-5F1BB4152D25}"/>
+    <hyperlink ref="C52" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116217" xr:uid="{5BE22E35-84A4-436D-8B5F-AE8D0DDBFB67}"/>
+    <hyperlink ref="C53" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012" xr:uid="{9C000A67-4F84-4983-914F-1B6CF5CA1489}"/>
+    <hyperlink ref="C54" r:id="rId38" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209" xr:uid="{DF729926-50E1-451C-A5F6-66C9D8ECA7AB}"/>
+    <hyperlink ref="C55" r:id="rId39" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943" xr:uid="{4831645C-AFE6-470E-9F2D-6D2EF2DAB3FE}"/>
+    <hyperlink ref="C56" r:id="rId40" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209" xr:uid="{0FB130FC-C123-4739-BA4E-8C37A73CE450}"/>
+    <hyperlink ref="C57" r:id="rId41" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209" xr:uid="{A9F795CE-A777-4EB1-A942-5F1BB4152D25}"/>
     <hyperlink ref="C58" r:id="rId42" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209" xr:uid="{3AB90D38-02D7-4FF1-83AF-8A54FAE1332B}"/>
     <hyperlink ref="C59" r:id="rId43" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116209" xr:uid="{188B09A5-EDBA-4015-9EEB-705027048E95}"/>
-    <hyperlink ref="C61" r:id="rId44" xr:uid="{93AAC7B5-7FD1-4C7F-B215-B5B60C07E56C}"/>
-    <hyperlink ref="C62" r:id="rId45" xr:uid="{3F35C200-42AA-43CA-BCB8-361346C1ADB9}"/>
-    <hyperlink ref="C63" r:id="rId46" xr:uid="{2BB83C41-AE93-41FF-B4E6-2C97855D30E6}"/>
-    <hyperlink ref="C64" r:id="rId47" xr:uid="{0E2D8E6B-A22F-4164-A02F-6A6CBFF2697D}"/>
+    <hyperlink ref="C61" r:id="rId44" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216" xr:uid="{93AAC7B5-7FD1-4C7F-B215-B5B60C07E56C}"/>
+    <hyperlink ref="C62" r:id="rId45" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{3F35C200-42AA-43CA-BCB8-361346C1ADB9}"/>
+    <hyperlink ref="C63" r:id="rId46" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{2BB83C41-AE93-41FF-B4E6-2C97855D30E6}"/>
+    <hyperlink ref="C64" r:id="rId47" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{0E2D8E6B-A22F-4164-A02F-6A6CBFF2697D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7785,8 +7782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A7A7F-A4F5-451E-8F0D-1ADAF98D51EC}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,652 +7804,652 @@
     </row>
     <row r="2" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>135</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>409</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>479</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>481</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>292</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>488</v>
+        <v>385</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>489</v>
+        <v>386</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>61</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>492</v>
+        <v>389</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>493</v>
+        <v>390</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>494</v>
+        <v>391</v>
       </c>
       <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>496</v>
+        <v>393</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>196</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>67</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>500</v>
+        <v>397</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="192" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>502</v>
+        <v>399</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>505</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>507</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3" ht="243" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>515</v>
+        <v>410</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="357.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>517</v>
+        <v>412</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>262</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>388</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>523</v>
+        <v>418</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{05E306C4-62A6-48DF-995B-D85A9B13242C}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{C8803E09-B59E-4F07-9AC8-CFB5B5ADE721}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{80C50BB7-79C7-4561-8E43-3C5D3C46CF1A}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{05E306C4-62A6-48DF-995B-D85A9B13242C}"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140" xr:uid="{C8803E09-B59E-4F07-9AC8-CFB5B5ADE721}"/>
+    <hyperlink ref="C8" r:id="rId3" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213" xr:uid="{80C50BB7-79C7-4561-8E43-3C5D3C46CF1A}"/>
     <hyperlink ref="C9" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213" xr:uid="{1F41B057-ADF0-4D5C-AC92-A34300AE1BEB}"/>
     <hyperlink ref="C10" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116213" xr:uid="{791DB2AE-FF37-4C50-AE82-C98A5D25B4B2}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{3F04C149-1853-451E-8C7A-331426115C22}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{30095BD2-0316-4DCD-B617-521B2C60B56B}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{DEB870F3-FE4A-43DD-A933-CB343D4A4F0C}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{D3324FC1-ED01-49A3-B054-4D2D0132A307}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{60B5EC05-A8CC-4C1C-872E-D3A091AAF81A}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{1F834440-9A0D-45B1-937F-B719162459C1}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{F358DBEB-4B95-4000-9178-DDC7261EC1D6}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{3DA989B8-A300-49F5-AB89-9404E0F3FE13}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{5E222967-06A2-4245-9442-88CDE4DB88C5}"/>
-    <hyperlink ref="C24" r:id="rId15" xr:uid="{4C396938-CAD6-41BC-A8F7-6DCDA126A842}"/>
-    <hyperlink ref="C25" r:id="rId16" xr:uid="{49064CF3-8724-4B84-AB5E-A76E3D019A22}"/>
-    <hyperlink ref="C26" r:id="rId17" xr:uid="{204954D1-53E8-44A2-A8B7-9795AEC46B78}"/>
-    <hyperlink ref="C27" r:id="rId18" xr:uid="{F1CBDC98-9C88-4479-858E-A505CFA7D33A}"/>
-    <hyperlink ref="C30" r:id="rId19" xr:uid="{29B09776-7288-4C1E-9A18-71F68830F8E4}"/>
-    <hyperlink ref="C31" r:id="rId20" xr:uid="{5DECC938-1D39-4AD6-8E74-E85F8F02737D}"/>
-    <hyperlink ref="C32" r:id="rId21" xr:uid="{DA392FC9-D309-4390-8AC7-A41492F5D49E}"/>
-    <hyperlink ref="C33" r:id="rId22" xr:uid="{3157E795-0441-405D-933E-1FC45B4FF2B2}"/>
-    <hyperlink ref="C34" r:id="rId23" xr:uid="{EAAF6643-F21F-4EDF-A73E-CE2F4E09FF65}"/>
-    <hyperlink ref="C36" r:id="rId24" xr:uid="{36E6639B-8D37-40C8-BFC8-435D727D4335}"/>
-    <hyperlink ref="C38" r:id="rId25" xr:uid="{68A289EC-16C3-499D-AEB7-3293DB9B14CF}"/>
-    <hyperlink ref="C45" r:id="rId26" xr:uid="{8C375870-036E-479E-AA9D-FF043D393D7B}"/>
-    <hyperlink ref="C48" r:id="rId27" xr:uid="{33C7A2EC-E70C-4D07-A356-A0ABBF77AF43}"/>
-    <hyperlink ref="C49" r:id="rId28" xr:uid="{90685076-7314-4ABE-9010-35CEC3EB6DA8}"/>
-    <hyperlink ref="C50" r:id="rId29" xr:uid="{4C2395ED-2E91-4DF1-A219-08AEB05B765F}"/>
-    <hyperlink ref="C51" r:id="rId30" xr:uid="{E7950714-49C8-4D15-AD24-EADB06E2B4E3}"/>
-    <hyperlink ref="C52" r:id="rId31" xr:uid="{D0B10D81-00C5-47AD-9C2D-797A7778A2A0}"/>
-    <hyperlink ref="C53" r:id="rId32" xr:uid="{A3786650-BF0A-4E42-BD76-B6C4F0F556FC}"/>
-    <hyperlink ref="C55" r:id="rId33" xr:uid="{078F1FA7-B398-4BCE-BBD1-EF021F27835C}"/>
-    <hyperlink ref="C56" r:id="rId34" xr:uid="{E4E7E8FB-293F-44D6-89AC-D42DA54A3499}"/>
-    <hyperlink ref="C57" r:id="rId35" xr:uid="{A052EAF4-9F41-4082-83C9-714E77634563}"/>
-    <hyperlink ref="C58" r:id="rId36" xr:uid="{85EF3B52-F201-40E8-835A-223CF88AB4D2}"/>
-    <hyperlink ref="C60" r:id="rId37" xr:uid="{32E52BE4-5227-4F3F-9431-9EAD1C3C35B2}"/>
+    <hyperlink ref="C11" r:id="rId6" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888" xr:uid="{3F04C149-1853-451E-8C7A-331426115C22}"/>
+    <hyperlink ref="C12" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116149" xr:uid="{30095BD2-0316-4DCD-B617-521B2C60B56B}"/>
+    <hyperlink ref="C16" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910" xr:uid="{DEB870F3-FE4A-43DD-A933-CB343D4A4F0C}"/>
+    <hyperlink ref="C17" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{D3324FC1-ED01-49A3-B054-4D2D0132A307}"/>
+    <hyperlink ref="C18" r:id="rId10" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{60B5EC05-A8CC-4C1C-872E-D3A091AAF81A}"/>
+    <hyperlink ref="C19" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116012" xr:uid="{1F834440-9A0D-45B1-937F-B719162459C1}"/>
+    <hyperlink ref="C20" r:id="rId12" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916" xr:uid="{F358DBEB-4B95-4000-9178-DDC7261EC1D6}"/>
+    <hyperlink ref="C21" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916" xr:uid="{3DA989B8-A300-49F5-AB89-9404E0F3FE13}"/>
+    <hyperlink ref="C22" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116128" xr:uid="{5E222967-06A2-4245-9442-88CDE4DB88C5}"/>
+    <hyperlink ref="C24" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910" xr:uid="{4C396938-CAD6-41BC-A8F7-6DCDA126A842}"/>
+    <hyperlink ref="C25" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115986" xr:uid="{49064CF3-8724-4B84-AB5E-A76E3D019A22}"/>
+    <hyperlink ref="C26" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{204954D1-53E8-44A2-A8B7-9795AEC46B78}"/>
+    <hyperlink ref="C27" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115958" xr:uid="{F1CBDC98-9C88-4479-858E-A505CFA7D33A}"/>
+    <hyperlink ref="C30" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116077" xr:uid="{29B09776-7288-4C1E-9A18-71F68830F8E4}"/>
+    <hyperlink ref="C31" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910" xr:uid="{5DECC938-1D39-4AD6-8E74-E85F8F02737D}"/>
+    <hyperlink ref="C32" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130" xr:uid="{DA392FC9-D309-4390-8AC7-A41492F5D49E}"/>
+    <hyperlink ref="C33" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{3157E795-0441-405D-933E-1FC45B4FF2B2}"/>
+    <hyperlink ref="C34" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{EAAF6643-F21F-4EDF-A73E-CE2F4E09FF65}"/>
+    <hyperlink ref="C36" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115856" xr:uid="{36E6639B-8D37-40C8-BFC8-435D727D4335}"/>
+    <hyperlink ref="C38" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115922" xr:uid="{68A289EC-16C3-499D-AEB7-3293DB9B14CF}"/>
+    <hyperlink ref="C45" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{8C375870-036E-479E-AA9D-FF043D393D7B}"/>
+    <hyperlink ref="C48" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{33C7A2EC-E70C-4D07-A356-A0ABBF77AF43}"/>
+    <hyperlink ref="C49" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115954" xr:uid="{90685076-7314-4ABE-9010-35CEC3EB6DA8}"/>
+    <hyperlink ref="C50" r:id="rId29" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943" xr:uid="{4C2395ED-2E91-4DF1-A219-08AEB05B765F}"/>
+    <hyperlink ref="C51" r:id="rId30" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{E7950714-49C8-4D15-AD24-EADB06E2B4E3}"/>
+    <hyperlink ref="C52" r:id="rId31" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{D0B10D81-00C5-47AD-9C2D-797A7778A2A0}"/>
+    <hyperlink ref="C53" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{A3786650-BF0A-4E42-BD76-B6C4F0F556FC}"/>
+    <hyperlink ref="C55" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116115" xr:uid="{078F1FA7-B398-4BCE-BBD1-EF021F27835C}"/>
+    <hyperlink ref="C56" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{E4E7E8FB-293F-44D6-89AC-D42DA54A3499}"/>
+    <hyperlink ref="C57" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{A052EAF4-9F41-4082-83C9-714E77634563}"/>
+    <hyperlink ref="C58" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{85EF3B52-F201-40E8-835A-223CF88AB4D2}"/>
+    <hyperlink ref="C60" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116253" xr:uid="{32E52BE4-5227-4F3F-9431-9EAD1C3C35B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8462,8 +8459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5C99D6-5B1D-4B7A-AA7E-8A9EDA705657}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:E115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,1498 +8487,1498 @@
     </row>
     <row r="2" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="192" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>269</v>
+        <v>580</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>541</v>
+        <v>436</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>543</v>
+        <v>438</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>545</v>
+        <v>439</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>546</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>547</v>
+        <v>441</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>133</v>
+        <v>584</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="357.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>548</v>
+        <v>442</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>585</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>549</v>
+        <v>443</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>586</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>552</v>
+        <v>445</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>143</v>
+        <v>588</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>553</v>
+        <v>446</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>554</v>
+        <v>447</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>282</v>
+        <v>589</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>555</v>
+        <v>448</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>556</v>
+        <v>449</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>558</v>
+        <v>450</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>559</v>
+        <v>451</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>356</v>
+        <v>593</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>560</v>
+        <v>452</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>562</v>
+        <v>453</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>563</v>
+        <v>454</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>157</v>
+        <v>595</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>292</v>
+        <v>596</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>567</v>
+        <v>458</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>39</v>
+        <v>597</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>568</v>
+        <v>459</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>434</v>
+        <v>599</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>572</v>
+        <v>462</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>574</v>
+        <v>463</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>164</v>
+        <v>601</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>575</v>
+        <v>464</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>576</v>
+        <v>465</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>166</v>
+        <v>602</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>577</v>
+        <v>466</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>579</v>
+        <v>468</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>580</v>
+        <v>469</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>581</v>
+        <v>470</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>582</v>
+        <v>471</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>585</v>
+        <v>473</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>586</v>
+        <v>474</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>588</v>
+        <v>475</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>589</v>
+        <v>476</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>590</v>
+        <v>477</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>591</v>
+        <v>478</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>184</v>
+        <v>609</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>592</v>
+        <v>479</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>184</v>
+        <v>609</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>593</v>
+        <v>480</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>419</v>
+        <v>610</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>594</v>
+        <v>481</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>186</v>
+        <v>611</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>595</v>
+        <v>482</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>596</v>
+        <v>483</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>597</v>
+        <v>484</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>598</v>
+        <v>485</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>599</v>
+        <v>486</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>600</v>
+        <v>487</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>601</v>
+        <v>488</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>602</v>
+        <v>489</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>603</v>
+        <v>490</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>604</v>
+        <v>491</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>606</v>
+        <v>492</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>607</v>
+        <v>493</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>608</v>
+        <v>494</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>609</v>
+        <v>495</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>610</v>
+        <v>496</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>611</v>
+        <v>497</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>612</v>
+        <v>498</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>613</v>
+        <v>499</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>614</v>
+        <v>500</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>615</v>
+        <v>501</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>211</v>
+        <v>619</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>616</v>
+        <v>502</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>617</v>
+        <v>503</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>354</v>
+        <v>620</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>618</v>
+        <v>504</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>356</v>
+        <v>593</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>619</v>
+        <v>505</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>620</v>
+        <v>506</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>621</v>
+        <v>507</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>622</v>
+        <v>508</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>623</v>
+        <v>509</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>624</v>
+        <v>510</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>271</v>
+        <v>581</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>625</v>
+        <v>511</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>365</v>
+        <v>622</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>626</v>
+        <v>512</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>628</v>
+        <v>513</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>630</v>
+        <v>514</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>631</v>
+        <v>515</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>376</v>
+        <v>625</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>632</v>
+        <v>516</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>216</v>
+        <v>626</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>633</v>
+        <v>517</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>373</v>
+        <v>627</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>634</v>
+        <v>518</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>636</v>
+        <v>519</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>305</v>
+        <v>629</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>376</v>
+        <v>625</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>639</v>
+        <v>522</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>381</v>
+        <v>630</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>376</v>
+        <v>625</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>641</v>
+        <v>524</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>378</v>
+        <v>631</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>642</v>
+        <v>525</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>220</v>
+        <v>632</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>643</v>
+        <v>526</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>644</v>
+        <v>527</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>262</v>
+        <v>634</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>645</v>
+        <v>528</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>384</v>
+        <v>635</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>646</v>
+        <v>529</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>647</v>
+        <v>530</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>388</v>
+        <v>636</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>459</v>
+        <v>637</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>262</v>
+        <v>634</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>651</v>
+        <v>534</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>652</v>
+        <v>535</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>653</v>
+        <v>536</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>115</v>
+        <v>640</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>654</v>
+        <v>537</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>656</v>
+        <v>539</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>118</v>
+        <v>641</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>658</v>
+        <v>541</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>661</v>
+        <v>544</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>663</v>
+        <v>546</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -9989,122 +9986,122 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{26E72DF3-548D-4FBF-890D-D28E211488BC}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{7C830BDB-2FD0-4D0B-8B95-0F6B4AEE851A}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947" xr:uid="{26E72DF3-548D-4FBF-890D-D28E211488BC}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947" xr:uid="{7C830BDB-2FD0-4D0B-8B95-0F6B4AEE851A}"/>
     <hyperlink ref="E3" r:id="rId3" display="https://www.google.com/maps/place/Balneario+Ca%C3%B1o+Paca/@0.9080194,-70.6844717,9z/data=!4m10!1m2!2m1!1sCa%C3%B1o+paca+Vaupes!3m6!1s0x8e032f9a4afd78fb:0x3cb2609c20e04e54!8m2!3d0.6824265!4d-70.2421281!15sChFDYcOxbyBwYWNhIFZhdXBlc5IBCmhlYWx0aF9zcGHgAQA!16s%2Fg%2F11rzds5ypc?entry=ttu" xr:uid="{29F3EA69-3087-4BDA-94AB-B0B2D274ECF7}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{BDE860C1-19AE-4453-BDE6-74B1F6D33577}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{612345C0-8137-4806-A830-172EA7BA988F}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{BDE860C1-19AE-4453-BDE6-74B1F6D33577}"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115915" xr:uid="{612345C0-8137-4806-A830-172EA7BA988F}"/>
     <hyperlink ref="E5" r:id="rId6" display="https://www.google.com/maps/place/Rio+Papuri/@0.6066789,-69.313363,12z/data=!3m1!4b1!4m6!3m5!1s0x8e03cbb1a4636ecf:0xc7df463fd95496cd!8m2!3d0.6042352!4d-69.2314068!16s%2Fm%2F06w2dzf?entry=ttu" xr:uid="{4709FB9D-C003-4091-B155-242ACB873811}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{0103DE2E-90BE-4006-967E-BAC97B420603}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{BE2C190E-F5B9-4EF3-A35B-85DD8B35EDF6}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{CC1A55DE-A704-4714-B38F-81153FFD5D4E}"/>
+    <hyperlink ref="C6" r:id="rId7" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{0103DE2E-90BE-4006-967E-BAC97B420603}"/>
+    <hyperlink ref="C7" r:id="rId8" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{BE2C190E-F5B9-4EF3-A35B-85DD8B35EDF6}"/>
+    <hyperlink ref="C8" r:id="rId9" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116127" xr:uid="{CC1A55DE-A704-4714-B38F-81153FFD5D4E}"/>
     <hyperlink ref="E8" r:id="rId10" xr:uid="{F53525E4-1A54-4EDA-9C8A-8BBB0618F761}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{64261261-CCFF-401A-8E72-76E052431B26}"/>
+    <hyperlink ref="C9" r:id="rId11" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116026" xr:uid="{64261261-CCFF-401A-8E72-76E052431B26}"/>
     <hyperlink ref="E9" r:id="rId12" xr:uid="{85DE58DB-09FE-42C9-88B5-B980677B6C54}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{CE2BC145-C0D5-4F71-B720-035FD8D31466}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{6E57436B-F074-493A-838A-1B5852404991}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{FA8145D3-D08D-4CB6-AC28-0C019FB6FCED}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{068D40DA-25D4-4E5B-A31C-9892EA3B708C}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{19CEE0C3-26C7-4C3D-AFBA-9BD02DE659AB}"/>
-    <hyperlink ref="C15" r:id="rId18" xr:uid="{818D06EF-855B-4042-86A0-C1B8696D6E60}"/>
-    <hyperlink ref="C16" r:id="rId19" xr:uid="{73D1153A-5310-443B-B889-A9469BD6E63C}"/>
-    <hyperlink ref="C17" r:id="rId20" xr:uid="{3B661E3D-12D7-4341-8FEF-ADFD771D9483}"/>
-    <hyperlink ref="C18" r:id="rId21" xr:uid="{6C7548BC-6F8D-4CB5-86C3-5242FDEF51F8}"/>
-    <hyperlink ref="C19" r:id="rId22" xr:uid="{92513CC9-9FBA-4299-9B46-D98A015C721F}"/>
-    <hyperlink ref="C20" r:id="rId23" xr:uid="{2331EAF5-423E-4124-945C-8BF7E2CDE71B}"/>
-    <hyperlink ref="C21" r:id="rId24" xr:uid="{30890EC0-8B84-422A-B606-792DC9A2C1B5}"/>
-    <hyperlink ref="C22" r:id="rId25" xr:uid="{EC9E6E0F-67C6-4117-8AAB-FC9B2B793165}"/>
-    <hyperlink ref="C23" r:id="rId26" xr:uid="{A2533C20-6D97-4972-BDE1-60359BC3DC00}"/>
-    <hyperlink ref="C24" r:id="rId27" xr:uid="{9D8A00C2-4BB1-4C05-86F3-CDC2BB63DB39}"/>
-    <hyperlink ref="C25" r:id="rId28" xr:uid="{83FAE165-8154-469D-916D-5BB3571FB015}"/>
-    <hyperlink ref="C26" r:id="rId29" xr:uid="{FA8E3964-D566-4581-9C07-76DAB1CB8D30}"/>
-    <hyperlink ref="C27" r:id="rId30" xr:uid="{61319580-0742-4248-A9F4-5CD7F636B449}"/>
-    <hyperlink ref="C28" r:id="rId31" xr:uid="{3A1DC788-47E5-4E77-B5A3-9123784A7A53}"/>
-    <hyperlink ref="C29" r:id="rId32" xr:uid="{0EE0F7C6-D54E-45BF-8251-74264ED87D76}"/>
-    <hyperlink ref="C30" r:id="rId33" xr:uid="{B21CB718-D461-4AD7-A002-F9007F58B764}"/>
-    <hyperlink ref="C31" r:id="rId34" xr:uid="{90D5889B-5127-4D97-A14F-F829BAE74472}"/>
-    <hyperlink ref="C32" r:id="rId35" xr:uid="{33FC5D37-416C-4435-BB84-61F1E412D437}"/>
-    <hyperlink ref="C33" r:id="rId36" xr:uid="{3BDBAAC3-4BCE-4FB4-873A-0A1EE6E945E0}"/>
-    <hyperlink ref="C34" r:id="rId37" xr:uid="{6B36A0F0-6478-49BD-894F-CC375FF54DCD}"/>
-    <hyperlink ref="C35" r:id="rId38" xr:uid="{465087A8-A8D6-478A-A39B-BE502A8BD36A}"/>
-    <hyperlink ref="C36" r:id="rId39" xr:uid="{BE101C2D-77DD-4A50-B184-429CD756D791}"/>
-    <hyperlink ref="C37" r:id="rId40" xr:uid="{842D51C6-3578-4311-867C-93931F6ECD23}"/>
-    <hyperlink ref="C38" r:id="rId41" xr:uid="{85251BFA-107E-4CA4-A63C-A4347DA7D802}"/>
-    <hyperlink ref="C39" r:id="rId42" xr:uid="{040C5EDF-F5E9-40B2-916F-F22615B16C7A}"/>
-    <hyperlink ref="C40" r:id="rId43" xr:uid="{E131A5DB-9BD8-4764-9C20-75F5EC263435}"/>
-    <hyperlink ref="C41" r:id="rId44" xr:uid="{C0692557-60AC-4A35-AD4D-2090AA9CA3C3}"/>
-    <hyperlink ref="C42" r:id="rId45" xr:uid="{0EB0865E-478C-42AA-B228-B37658D253E0}"/>
-    <hyperlink ref="C43" r:id="rId46" xr:uid="{C6D0539D-A5B6-46A5-A567-102E9DD2A73B}"/>
-    <hyperlink ref="C44" r:id="rId47" xr:uid="{8641F8FC-6677-40B7-900E-79C27C7F650C}"/>
-    <hyperlink ref="C45" r:id="rId48" xr:uid="{A1E11936-9294-4200-9C00-CA0DD9746AB0}"/>
-    <hyperlink ref="C46" r:id="rId49" xr:uid="{2595C6FD-32EE-462A-982A-3978D7D6FFDB}"/>
-    <hyperlink ref="C47" r:id="rId50" xr:uid="{7DFBE99C-139D-4C6B-8C0A-70DD0BF7CB08}"/>
-    <hyperlink ref="C48" r:id="rId51" xr:uid="{FCC8E387-6B8E-4FA9-8955-A9C4A5D4567B}"/>
-    <hyperlink ref="C49" r:id="rId52" xr:uid="{06EFA558-9791-477F-A2BC-E447550C6A0E}"/>
-    <hyperlink ref="C50" r:id="rId53" xr:uid="{C35614ED-CABE-47ED-8511-2B7FFF406687}"/>
-    <hyperlink ref="C51" r:id="rId54" xr:uid="{8C76375A-2CE6-437C-BCA0-671438705F74}"/>
-    <hyperlink ref="C52" r:id="rId55" xr:uid="{B85AE799-84BD-4320-8C03-535A67E34ABA}"/>
-    <hyperlink ref="C53" r:id="rId56" xr:uid="{A7BEE0E3-5FE1-48A3-B8A8-8573736DE5DC}"/>
-    <hyperlink ref="C54" r:id="rId57" xr:uid="{FCCB5442-1689-4D8C-8E49-9A1C3B926FFE}"/>
-    <hyperlink ref="C55" r:id="rId58" xr:uid="{53A20F99-05AB-4DAE-B14F-3F9423705DB9}"/>
-    <hyperlink ref="C56" r:id="rId59" xr:uid="{9939F451-C882-4D16-B25A-D82520FBD0CE}"/>
-    <hyperlink ref="C57" r:id="rId60" xr:uid="{B5858EAF-CFD2-4F43-A898-CC24D8010068}"/>
-    <hyperlink ref="C58" r:id="rId61" xr:uid="{E71B4AAA-35D3-4844-8B05-DE949C71A29A}"/>
-    <hyperlink ref="C59" r:id="rId62" xr:uid="{18FB4129-FBE7-4880-B9A5-86BD772A9AE4}"/>
-    <hyperlink ref="C61" r:id="rId63" xr:uid="{1A0A2055-4641-4D36-8331-91845FEAFA6E}"/>
-    <hyperlink ref="C62" r:id="rId64" xr:uid="{DA56F914-6ABF-4C86-A98B-5850EF07C41A}"/>
-    <hyperlink ref="C63" r:id="rId65" xr:uid="{98B246B6-34DF-4F1A-8385-9DAFE29ADB3A}"/>
-    <hyperlink ref="C64" r:id="rId66" xr:uid="{F7213C15-EBE3-4DCD-8BD0-1B4B37469BD7}"/>
-    <hyperlink ref="C65" r:id="rId67" xr:uid="{C13E3B28-B61F-417E-9A3B-EBD4985B7608}"/>
-    <hyperlink ref="C66" r:id="rId68" xr:uid="{9CB6E9FB-7E9D-4B78-8825-F74BCFD638AD}"/>
-    <hyperlink ref="C67" r:id="rId69" xr:uid="{50CF7A22-409B-4EEA-92DB-3FC3F7C8959C}"/>
-    <hyperlink ref="C68" r:id="rId70" xr:uid="{D540E37F-D8EB-4C9D-8912-F8867849C3E3}"/>
-    <hyperlink ref="C69" r:id="rId71" xr:uid="{3195EBC4-9146-4193-8C8A-C98695E13B2C}"/>
-    <hyperlink ref="C70" r:id="rId72" xr:uid="{F09C54FD-D9BC-4494-89CB-BA3345C3CBB6}"/>
-    <hyperlink ref="C71" r:id="rId73" xr:uid="{6F133448-C487-4881-A403-CDFD253BE530}"/>
-    <hyperlink ref="C72" r:id="rId74" xr:uid="{78EC97A2-38CC-4EB9-87EB-AF12CE374DDC}"/>
-    <hyperlink ref="C73" r:id="rId75" xr:uid="{14A18EA3-0020-4D99-AA1C-FD722C9E1622}"/>
-    <hyperlink ref="C74" r:id="rId76" xr:uid="{1AB7D804-D9AF-41D0-B41A-0A0BCF4C6DE6}"/>
-    <hyperlink ref="C75" r:id="rId77" xr:uid="{8B2CDDF0-FE9D-4BA9-8F58-30CE32D96507}"/>
-    <hyperlink ref="C76" r:id="rId78" xr:uid="{18EA1001-B4BB-47EE-B999-76742DFAEF8D}"/>
-    <hyperlink ref="C77" r:id="rId79" xr:uid="{EDF21C0C-2800-42D3-8DC1-165BCC0B09FB}"/>
-    <hyperlink ref="C78" r:id="rId80" xr:uid="{FE0EF816-AD11-4DB6-BA6D-FD9D47370184}"/>
-    <hyperlink ref="C79" r:id="rId81" xr:uid="{3C5B1DAD-A9D7-44AA-9955-20D2D7119F9E}"/>
-    <hyperlink ref="C80" r:id="rId82" xr:uid="{0A298757-E85B-4198-9D06-0E056223A20B}"/>
-    <hyperlink ref="C81" r:id="rId83" xr:uid="{3E694E07-46CF-41AF-8C36-ECDF33C833BF}"/>
-    <hyperlink ref="C82" r:id="rId84" xr:uid="{84DB5610-A631-4F6C-97E4-44C21A1EEF71}"/>
-    <hyperlink ref="C83" r:id="rId85" xr:uid="{55FD01CD-6015-4A9A-A08D-E9F5F165307A}"/>
-    <hyperlink ref="C84" r:id="rId86" xr:uid="{3BE97732-0BFF-462C-BAF3-6052E150D794}"/>
-    <hyperlink ref="C85" r:id="rId87" xr:uid="{067DB3B7-F003-473A-90D1-C2DCFBE77B98}"/>
-    <hyperlink ref="C86" r:id="rId88" xr:uid="{15724B3B-C049-42F6-B4AB-2CC8EFEAF0C2}"/>
+    <hyperlink ref="C10" r:id="rId13" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116076" xr:uid="{CE2BC145-C0D5-4F71-B720-035FD8D31466}"/>
+    <hyperlink ref="C11" r:id="rId14" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116207" xr:uid="{6E57436B-F074-493A-838A-1B5852404991}"/>
+    <hyperlink ref="C12" r:id="rId15" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116140" xr:uid="{FA8145D3-D08D-4CB6-AC28-0C019FB6FCED}"/>
+    <hyperlink ref="C13" r:id="rId16" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116114" xr:uid="{068D40DA-25D4-4E5B-A31C-9892EA3B708C}"/>
+    <hyperlink ref="C14" r:id="rId17" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116141" xr:uid="{19CEE0C3-26C7-4C3D-AFBA-9BD02DE659AB}"/>
+    <hyperlink ref="C15" r:id="rId18" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{818D06EF-855B-4042-86A0-C1B8696D6E60}"/>
+    <hyperlink ref="C16" r:id="rId19" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115826" xr:uid="{73D1153A-5310-443B-B889-A9469BD6E63C}"/>
+    <hyperlink ref="C17" r:id="rId20" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{3B661E3D-12D7-4341-8FEF-ADFD771D9483}"/>
+    <hyperlink ref="C18" r:id="rId21" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116162" xr:uid="{6C7548BC-6F8D-4CB5-86C3-5242FDEF51F8}"/>
+    <hyperlink ref="C19" r:id="rId22" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{92513CC9-9FBA-4299-9B46-D98A015C721F}"/>
+    <hyperlink ref="C20" r:id="rId23" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115877" xr:uid="{2331EAF5-423E-4124-945C-8BF7E2CDE71B}"/>
+    <hyperlink ref="C21" r:id="rId24" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115899" xr:uid="{30890EC0-8B84-422A-B606-792DC9A2C1B5}"/>
+    <hyperlink ref="C22" r:id="rId25" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{EC9E6E0F-67C6-4117-8AAB-FC9B2B793165}"/>
+    <hyperlink ref="C23" r:id="rId26" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116137" xr:uid="{A2533C20-6D97-4972-BDE1-60359BC3DC00}"/>
+    <hyperlink ref="C24" r:id="rId27" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{9D8A00C2-4BB1-4C05-86F3-CDC2BB63DB39}"/>
+    <hyperlink ref="C25" r:id="rId28" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115888" xr:uid="{83FAE165-8154-469D-916D-5BB3571FB015}"/>
+    <hyperlink ref="C26" r:id="rId29" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{FA8E3964-D566-4581-9C07-76DAB1CB8D30}"/>
+    <hyperlink ref="C27" r:id="rId30" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115872" xr:uid="{61319580-0742-4248-A9F4-5CD7F636B449}"/>
+    <hyperlink ref="C28" r:id="rId31" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115917" xr:uid="{3A1DC788-47E5-4E77-B5A3-9123784A7A53}"/>
+    <hyperlink ref="C29" r:id="rId32" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{0EE0F7C6-D54E-45BF-8251-74264ED87D76}"/>
+    <hyperlink ref="C30" r:id="rId33" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116212" xr:uid="{B21CB718-D461-4AD7-A002-F9007F58B764}"/>
+    <hyperlink ref="C31" r:id="rId34" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115907" xr:uid="{90D5889B-5127-4D97-A14F-F829BAE74472}"/>
+    <hyperlink ref="C32" r:id="rId35" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115984" xr:uid="{33FC5D37-416C-4435-BB84-61F1E412D437}"/>
+    <hyperlink ref="C33" r:id="rId36" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{3BDBAAC3-4BCE-4FB4-873A-0A1EE6E945E0}"/>
+    <hyperlink ref="C34" r:id="rId37" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116102" xr:uid="{6B36A0F0-6478-49BD-894F-CC375FF54DCD}"/>
+    <hyperlink ref="C35" r:id="rId38" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{465087A8-A8D6-478A-A39B-BE502A8BD36A}"/>
+    <hyperlink ref="C36" r:id="rId39" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116120" xr:uid="{BE101C2D-77DD-4A50-B184-429CD756D791}"/>
+    <hyperlink ref="C37" r:id="rId40" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116208" xr:uid="{842D51C6-3578-4311-867C-93931F6ECD23}"/>
+    <hyperlink ref="C38" r:id="rId41" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{85251BFA-107E-4CA4-A63C-A4347DA7D802}"/>
+    <hyperlink ref="C39" r:id="rId42" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{040C5EDF-F5E9-40B2-916F-F22615B16C7A}"/>
+    <hyperlink ref="C40" r:id="rId43" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{E131A5DB-9BD8-4764-9C20-75F5EC263435}"/>
+    <hyperlink ref="C41" r:id="rId44" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116180" xr:uid="{C0692557-60AC-4A35-AD4D-2090AA9CA3C3}"/>
+    <hyperlink ref="C42" r:id="rId45" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{0EB0865E-478C-42AA-B228-B37658D253E0}"/>
+    <hyperlink ref="C43" r:id="rId46" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115834" xr:uid="{C6D0539D-A5B6-46A5-A567-102E9DD2A73B}"/>
+    <hyperlink ref="C44" r:id="rId47" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910" xr:uid="{8641F8FC-6677-40B7-900E-79C27C7F650C}"/>
+    <hyperlink ref="C45" r:id="rId48" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116121" xr:uid="{A1E11936-9294-4200-9C00-CA0DD9746AB0}"/>
+    <hyperlink ref="C46" r:id="rId49" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{2595C6FD-32EE-462A-982A-3978D7D6FFDB}"/>
+    <hyperlink ref="C47" r:id="rId50" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178" xr:uid="{7DFBE99C-139D-4C6B-8C0A-70DD0BF7CB08}"/>
+    <hyperlink ref="C48" r:id="rId51" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116178" xr:uid="{FCC8E387-6B8E-4FA9-8955-A9C4A5D4567B}"/>
+    <hyperlink ref="C49" r:id="rId52" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116210" xr:uid="{06EFA558-9791-477F-A2BC-E447550C6A0E}"/>
+    <hyperlink ref="C50" r:id="rId53" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116126" xr:uid="{C35614ED-CABE-47ED-8511-2B7FFF406687}"/>
+    <hyperlink ref="C51" r:id="rId54" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{8C76375A-2CE6-437C-BCA0-671438705F74}"/>
+    <hyperlink ref="C52" r:id="rId55" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{B85AE799-84BD-4320-8C03-535A67E34ABA}"/>
+    <hyperlink ref="C53" r:id="rId56" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{A7BEE0E3-5FE1-48A3-B8A8-8573736DE5DC}"/>
+    <hyperlink ref="C54" r:id="rId57" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{FCCB5442-1689-4D8C-8E49-9A1C3B926FFE}"/>
+    <hyperlink ref="C55" r:id="rId58" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115910" xr:uid="{53A20F99-05AB-4DAE-B14F-3F9423705DB9}"/>
+    <hyperlink ref="C56" r:id="rId59" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{9939F451-C882-4D16-B25A-D82520FBD0CE}"/>
+    <hyperlink ref="C57" r:id="rId60" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115959" xr:uid="{B5858EAF-CFD2-4F43-A898-CC24D8010068}"/>
+    <hyperlink ref="C58" r:id="rId61" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116274" xr:uid="{E71B4AAA-35D3-4844-8B05-DE949C71A29A}"/>
+    <hyperlink ref="C59" r:id="rId62" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{18FB4129-FBE7-4880-B9A5-86BD772A9AE4}"/>
+    <hyperlink ref="C61" r:id="rId63" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116129" xr:uid="{1A0A2055-4641-4D36-8331-91845FEAFA6E}"/>
+    <hyperlink ref="C62" r:id="rId64" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116260" xr:uid="{DA56F914-6ABF-4C86-A98B-5850EF07C41A}"/>
+    <hyperlink ref="C63" r:id="rId65" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115834" xr:uid="{98B246B6-34DF-4F1A-8385-9DAFE29ADB3A}"/>
+    <hyperlink ref="C64" r:id="rId66" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{F7213C15-EBE3-4DCD-8BD0-1B4B37469BD7}"/>
+    <hyperlink ref="C65" r:id="rId67" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116117" xr:uid="{C13E3B28-B61F-417E-9A3B-EBD4985B7608}"/>
+    <hyperlink ref="C66" r:id="rId68" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116247" xr:uid="{9CB6E9FB-7E9D-4B78-8825-F74BCFD638AD}"/>
+    <hyperlink ref="C67" r:id="rId69" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{50CF7A22-409B-4EEA-92DB-3FC3F7C8959C}"/>
+    <hyperlink ref="C68" r:id="rId70" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{D540E37F-D8EB-4C9D-8912-F8867849C3E3}"/>
+    <hyperlink ref="C69" r:id="rId71" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116211" xr:uid="{3195EBC4-9146-4193-8C8A-C98695E13B2C}"/>
+    <hyperlink ref="C70" r:id="rId72" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116132" xr:uid="{F09C54FD-D9BC-4494-89CB-BA3345C3CBB6}"/>
+    <hyperlink ref="C71" r:id="rId73" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115947" xr:uid="{6F133448-C487-4881-A403-CDFD253BE530}"/>
+    <hyperlink ref="C72" r:id="rId74" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116227" xr:uid="{78EC97A2-38CC-4EB9-87EB-AF12CE374DDC}"/>
+    <hyperlink ref="C73" r:id="rId75" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115877" xr:uid="{14A18EA3-0020-4D99-AA1C-FD722C9E1622}"/>
+    <hyperlink ref="C74" r:id="rId76" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{1AB7D804-D9AF-41D0-B41A-0A0BCF4C6DE6}"/>
+    <hyperlink ref="C75" r:id="rId77" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116130" xr:uid="{8B2CDDF0-FE9D-4BA9-8F58-30CE32D96507}"/>
+    <hyperlink ref="C76" r:id="rId78" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{18EA1001-B4BB-47EE-B999-76742DFAEF8D}"/>
+    <hyperlink ref="C77" r:id="rId79" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{EDF21C0C-2800-42D3-8DC1-165BCC0B09FB}"/>
+    <hyperlink ref="C78" r:id="rId80" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115845" xr:uid="{FE0EF816-AD11-4DB6-BA6D-FD9D47370184}"/>
+    <hyperlink ref="C79" r:id="rId81" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116125" xr:uid="{3C5B1DAD-A9D7-44AA-9955-20D2D7119F9E}"/>
+    <hyperlink ref="C80" r:id="rId82" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116134" xr:uid="{0A298757-E85B-4198-9D06-0E056223A20B}"/>
+    <hyperlink ref="C81" r:id="rId83" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116188" xr:uid="{3E694E07-46CF-41AF-8C36-ECDF33C833BF}"/>
+    <hyperlink ref="C82" r:id="rId84" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115836" xr:uid="{84DB5610-A631-4F6C-97E4-44C21A1EEF71}"/>
+    <hyperlink ref="C83" r:id="rId85" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{55FD01CD-6015-4A9A-A08D-E9F5F165307A}"/>
+    <hyperlink ref="C84" r:id="rId86" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183" xr:uid="{3BE97732-0BFF-462C-BAF3-6052E150D794}"/>
+    <hyperlink ref="C85" r:id="rId87" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116122" xr:uid="{067DB3B7-F003-473A-90D1-C2DCFBE77B98}"/>
+    <hyperlink ref="C86" r:id="rId88" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109" xr:uid="{15724B3B-C049-42F6-B4AB-2CC8EFEAF0C2}"/>
     <hyperlink ref="C87" r:id="rId89" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109" xr:uid="{747AB1E7-DA6A-42B9-927D-D5147AC85F67}"/>
     <hyperlink ref="C88" r:id="rId90" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116109" xr:uid="{D790AE60-14C5-4532-BC17-8643F27108E9}"/>
-    <hyperlink ref="C89" r:id="rId91" xr:uid="{0E23135C-91A8-44FA-AB17-D61F12F02800}"/>
-    <hyperlink ref="C90" r:id="rId92" xr:uid="{9E137B62-2A59-4DCF-833F-C3E2F463A36B}"/>
-    <hyperlink ref="C91" r:id="rId93" xr:uid="{D3D17442-E48C-466A-AFEA-9B085D99B859}"/>
-    <hyperlink ref="C92" r:id="rId94" xr:uid="{3C563B1D-CAED-4CDC-90B9-C5E85ED4E80E}"/>
-    <hyperlink ref="C93" r:id="rId95" xr:uid="{90DCFE1F-5FB5-403D-A8BD-2CEE040D0E76}"/>
-    <hyperlink ref="C94" r:id="rId96" xr:uid="{C86204AB-936D-408F-A861-A056C1AB8814}"/>
-    <hyperlink ref="C96" r:id="rId97" xr:uid="{6B62CE8B-C1C0-42D0-8EB7-087315309AB6}"/>
-    <hyperlink ref="C97" r:id="rId98" xr:uid="{447EE228-A147-4EB0-A6DC-96CEF0EF40FF}"/>
-    <hyperlink ref="C98" r:id="rId99" xr:uid="{0AB06609-C3F4-4B74-80A7-2AD32C8AE5B6}"/>
-    <hyperlink ref="C99" r:id="rId100" xr:uid="{8A66E107-04FA-4146-AD2A-CF6A2105C891}"/>
-    <hyperlink ref="C100" r:id="rId101" xr:uid="{77FF088A-7A94-4C5B-A507-2BEB9FED280C}"/>
+    <hyperlink ref="C89" r:id="rId91" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{0E23135C-91A8-44FA-AB17-D61F12F02800}"/>
+    <hyperlink ref="C90" r:id="rId92" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183" xr:uid="{9E137B62-2A59-4DCF-833F-C3E2F463A36B}"/>
+    <hyperlink ref="C91" r:id="rId93" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116259" xr:uid="{D3D17442-E48C-466A-AFEA-9B085D99B859}"/>
+    <hyperlink ref="C92" r:id="rId94" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116183" xr:uid="{3C563B1D-CAED-4CDC-90B9-C5E85ED4E80E}"/>
+    <hyperlink ref="C93" r:id="rId95" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115823" xr:uid="{90DCFE1F-5FB5-403D-A8BD-2CEE040D0E76}"/>
+    <hyperlink ref="C94" r:id="rId96" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116139" xr:uid="{C86204AB-936D-408F-A861-A056C1AB8814}"/>
+    <hyperlink ref="C96" r:id="rId97" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115954" xr:uid="{6B62CE8B-C1C0-42D0-8EB7-087315309AB6}"/>
+    <hyperlink ref="C97" r:id="rId98" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116131" xr:uid="{447EE228-A147-4EB0-A6DC-96CEF0EF40FF}"/>
+    <hyperlink ref="C98" r:id="rId99" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{0AB06609-C3F4-4B74-80A7-2AD32C8AE5B6}"/>
+    <hyperlink ref="C99" r:id="rId100" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115943" xr:uid="{8A66E107-04FA-4146-AD2A-CF6A2105C891}"/>
+    <hyperlink ref="C100" r:id="rId101" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116217" xr:uid="{77FF088A-7A94-4C5B-A507-2BEB9FED280C}"/>
     <hyperlink ref="C101" r:id="rId102" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116217" xr:uid="{1008FA9D-2D0F-40EE-BB8F-3E5C79C5C8DE}"/>
-    <hyperlink ref="C102" r:id="rId103" xr:uid="{5AD522B4-7408-41CB-B950-6AC59F2907E2}"/>
-    <hyperlink ref="C103" r:id="rId104" xr:uid="{6C10F772-5527-4603-A68A-F8B4E3891A56}"/>
-    <hyperlink ref="C104" r:id="rId105" xr:uid="{47A1D4CC-D0E3-4F89-9A3D-20C36BB757B9}"/>
-    <hyperlink ref="C105" r:id="rId106" xr:uid="{6EF44F4C-E100-4E2A-9DA9-23156AB322FC}"/>
-    <hyperlink ref="C106" r:id="rId107" xr:uid="{E039138F-7336-4CBB-8D54-DD17DACBACCB}"/>
-    <hyperlink ref="C107" r:id="rId108" xr:uid="{28BFF837-A3F0-4877-A33B-5C623E420CD7}"/>
-    <hyperlink ref="C108" r:id="rId109" xr:uid="{EA2CB89E-4665-4C70-8C52-D1E7BAF591B9}"/>
+    <hyperlink ref="C102" r:id="rId103" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115954" xr:uid="{5AD522B4-7408-41CB-B950-6AC59F2907E2}"/>
+    <hyperlink ref="C103" r:id="rId104" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116124" xr:uid="{6C10F772-5527-4603-A68A-F8B4E3891A56}"/>
+    <hyperlink ref="C104" r:id="rId105" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{47A1D4CC-D0E3-4F89-9A3D-20C36BB757B9}"/>
+    <hyperlink ref="C105" r:id="rId106" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116138" xr:uid="{6EF44F4C-E100-4E2A-9DA9-23156AB322FC}"/>
+    <hyperlink ref="C106" r:id="rId107" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116136" xr:uid="{E039138F-7336-4CBB-8D54-DD17DACBACCB}"/>
+    <hyperlink ref="C107" r:id="rId108" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116287" xr:uid="{28BFF837-A3F0-4877-A33B-5C623E420CD7}"/>
+    <hyperlink ref="C108" r:id="rId109" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116216" xr:uid="{EA2CB89E-4665-4C70-8C52-D1E7BAF591B9}"/>
     <hyperlink ref="C109" r:id="rId110" xr:uid="{5593E330-B82D-492C-9908-A263D021F3BC}"/>
     <hyperlink ref="C110" r:id="rId111" xr:uid="{B0E34B64-52E5-45E8-BF15-081DD7731507}"/>
     <hyperlink ref="C111" r:id="rId112" xr:uid="{FB693483-3D4F-41C5-AB68-625CF408EC3D}"/>
-    <hyperlink ref="C112" r:id="rId113" xr:uid="{65A7DB09-548A-4DAA-A78E-E09D20207FB0}"/>
-    <hyperlink ref="C113" r:id="rId114" xr:uid="{1E1C4DBE-37CA-4A6C-9076-CE3622B031D6}"/>
-    <hyperlink ref="C114" r:id="rId115" xr:uid="{2FA12F2F-3343-4C8F-AFAD-EB81E348ACF5}"/>
-    <hyperlink ref="C115" r:id="rId116" xr:uid="{E0C97BAE-9865-4C0F-A0C7-77FD62B146E6}"/>
+    <hyperlink ref="C112" r:id="rId113" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116146" xr:uid="{65A7DB09-548A-4DAA-A78E-E09D20207FB0}"/>
+    <hyperlink ref="C113" r:id="rId114" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/115916" xr:uid="{1E1C4DBE-37CA-4A6C-9076-CE3622B031D6}"/>
+    <hyperlink ref="C114" r:id="rId115" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116241" xr:uid="{2FA12F2F-3343-4C8F-AFAD-EB81E348ACF5}"/>
+    <hyperlink ref="C115" r:id="rId116" display="http://repository.icesi.edu.co/biblioteca_digital/handle/10906/116253" xr:uid="{E0C97BAE-9865-4C0F-A0C7-77FD62B146E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/Datos_actualizados.xlsx
+++ b/public/Datos_actualizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ICESI\ProyectoSGR23-Vaupes\Mapa_Interactivo\MapaInteractivo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB979286-9324-4D22-8EC0-D38C15192793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3CC11-DF78-46F7-92D6-1A2AFD18B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="728">
   <si>
     <t xml:space="preserve">Se dice haber hablantes yucana en el resgiardo Yaigogé apaporis tanto al lado del Departamento de amazonas como del Vaupés, información por confirmar. </t>
   </si>
@@ -3066,23 +3066,143 @@
     <t>"... Separados del área piapococurripacobaniva por el enclave de las lenguastucanoorientales del Vaupés, encontramos, hacia el sur, otra área casi continuade lenguas arawak : entre el río Vaupés y el río Apaporis, sobre el Cananarí, estánlos Cabiyarí muy poco conocidos lingüísticamente..." (Landabaru, 1999:17).</t>
   </si>
   <si>
-    <t>0.7377489024245871, -70.2271657891204</t>
-  </si>
-  <si>
-    <t>0.6135449908904179, -69.22976388208887</t>
-  </si>
-  <si>
-    <t>1.2528603508654057, -70.233531942421</t>
-  </si>
-  <si>
-    <t>0.2835849608727887, -69.27775676382981</t>
+    <t>1.5666, -71.9821 | 1.1923, -71.9035</t>
+  </si>
+  <si>
+    <t>1.1729, -71.4815</t>
+  </si>
+  <si>
+    <t>-0.3325, -70.3546</t>
+  </si>
+  <si>
+    <t>-0.2386, -70.2655</t>
+  </si>
+  <si>
+    <t>-0.3100, -70.1755</t>
+  </si>
+  <si>
+    <t>-0.0882, -70.1707</t>
+  </si>
+  <si>
+    <t>-0.0978, -70.3101</t>
+  </si>
+  <si>
+    <t>-0.0017, -70.5731</t>
+  </si>
+  <si>
+    <t>0.14857, -70.55394</t>
+  </si>
+  <si>
+    <t>0.27045, -70.54038</t>
+  </si>
+  <si>
+    <t>0.33088, -70.55686</t>
+  </si>
+  <si>
+    <t>0.4707, -70.4996</t>
+  </si>
+  <si>
+    <t>0.47058, -70.15107 | 0.6792, -70.5307</t>
+  </si>
+  <si>
+    <t>0.57909, -69.83665</t>
+  </si>
+  <si>
+    <t>0.71229, -69.77314</t>
+  </si>
+  <si>
+    <t>0.81944, -69.52706</t>
+  </si>
+  <si>
+    <t>0.8207, -69.7491 | 0.65337, -69.26751</t>
+  </si>
+  <si>
+    <t>0.6429, -70.1771 | 0.59613, -69.95360 | 0.6080, -69.4377 | 0.70776, -69.17816</t>
+  </si>
+  <si>
+    <t>0.63904, -70.35340 | 0.6211, -69.0855</t>
+  </si>
+  <si>
+    <t>0.4661, -69.0432</t>
+  </si>
+  <si>
+    <t>0.34272, -69.97261 | 0.39954, -68.81905</t>
+  </si>
+  <si>
+    <t>1.0599, -69.5548</t>
+  </si>
+  <si>
+    <t>0.87312, -69.97896</t>
+  </si>
+  <si>
+    <t>0.94984, -69.94669 | 1.04339, -70.03286</t>
+  </si>
+  <si>
+    <t>1.59822, -70.31422</t>
+  </si>
+  <si>
+    <t>1.4821, -70.1467 | 1.33021, -70.53369</t>
+  </si>
+  <si>
+    <t>1.25517, -69.86000 | 1.30278, -70.25323</t>
+  </si>
+  <si>
+    <t>1.52220, -70.21551 | 1.40431, -70.58167 | 1.260102, -70.233471</t>
+  </si>
+  <si>
+    <t>1.258700, -70.236642</t>
+  </si>
+  <si>
+    <t>1.252304, -70.231959</t>
+  </si>
+  <si>
+    <t>1.16271, -70.31542</t>
+  </si>
+  <si>
+    <t>1.09247, -70.30478</t>
+  </si>
+  <si>
+    <t>1.12594, -70.43095</t>
+  </si>
+  <si>
+    <t>1.08994, -70.47103</t>
+  </si>
+  <si>
+    <t>1.06854, -70.47663</t>
+  </si>
+  <si>
+    <t>0.99069, -70.14668 | 0.8826, -70.2555</t>
+  </si>
+  <si>
+    <t>0.8883, -70.3262</t>
+  </si>
+  <si>
+    <t>0.9360, -70.3695</t>
+  </si>
+  <si>
+    <t>0.7647, -70.2624</t>
+  </si>
+  <si>
+    <t>0.7016, -70.2655</t>
+  </si>
+  <si>
+    <t>0.66062, -69.33163 | 0.7170, -70.4938</t>
+  </si>
+  <si>
+    <t>0.4611, -70.3987 | 0.6583, -70.3935</t>
+  </si>
+  <si>
+    <t>0.5938, -70.2306 | 0.66011, -70.15989</t>
+  </si>
+  <si>
+    <t>0.60776, -70.35344 | 0.5893, -69.8514 | 0.67710, -69.69109 | 0.5986, -70.1319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3127,6 +3247,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3261,11 +3401,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3403,11 +3544,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -8574,8 +8738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D9AD1-31F1-4BFF-9F42-447BDA12DB43}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8583,7 +8747,7 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8614,7 +8778,9 @@
       <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="61" t="s">
+        <v>721</v>
+      </c>
       <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
@@ -8627,8 +8793,8 @@
       <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>684</v>
+      <c r="D3" s="60" t="s">
+        <v>722</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>641</v>
@@ -8644,7 +8810,9 @@
       <c r="C4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="61" t="s">
+        <v>723</v>
+      </c>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8657,8 +8825,8 @@
       <c r="C5" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>685</v>
+      <c r="D5" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>644</v>
@@ -8674,7 +8842,9 @@
       <c r="C6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="61" t="s">
+        <v>717</v>
+      </c>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -8687,7 +8857,9 @@
       <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="61" t="s">
+        <v>716</v>
+      </c>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
@@ -8700,8 +8872,8 @@
       <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>686</v>
+      <c r="D8" s="60" t="s">
+        <v>712</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>645</v>
@@ -8717,8 +8889,8 @@
       <c r="C9" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>687</v>
+      <c r="D9" s="54" t="s">
+        <v>701</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>646</v>
@@ -8734,7 +8906,9 @@
       <c r="C10" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="58" t="s">
+        <v>727</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="244.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8747,7 +8921,9 @@
       <c r="C11" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="55" t="s">
+        <v>702</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -8760,7 +8936,9 @@
       <c r="C12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="55" t="s">
+        <v>684</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8773,7 +8951,9 @@
       <c r="C13" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="58" t="s">
+        <v>726</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8786,7 +8966,9 @@
       <c r="C14" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="58" t="s">
+        <v>725</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -8799,7 +8981,9 @@
       <c r="C15" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="58" t="s">
+        <v>724</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8812,7 +8996,7 @@
       <c r="C16" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -8825,7 +9009,9 @@
       <c r="C17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="58" t="s">
+        <v>713</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -8838,7 +9024,9 @@
       <c r="C18" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="55" t="s">
+        <v>696</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8851,7 +9039,9 @@
       <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="55" t="s">
+        <v>695</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -8864,7 +9054,7 @@
       <c r="C20" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -8877,7 +9067,7 @@
       <c r="C21" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -8890,7 +9080,9 @@
       <c r="C22" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="58" t="s">
+        <v>719</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
@@ -8903,7 +9095,9 @@
       <c r="C23" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="58" t="s">
+        <v>715</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -8916,7 +9110,9 @@
       <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="58" t="s">
+        <v>714</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -8929,11 +9125,13 @@
       <c r="C25" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="58" t="s">
+        <v>720</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -8942,7 +9140,9 @@
       <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="58" t="s">
+        <v>707</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8955,7 +9155,9 @@
       <c r="C27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="58" t="s">
+        <v>705</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8968,7 +9170,7 @@
       <c r="C28" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8981,7 +9183,9 @@
       <c r="C29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="58" t="s">
+        <v>706</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
@@ -8994,7 +9198,7 @@
       <c r="C30" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9007,7 +9211,9 @@
       <c r="C31" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="58" t="s">
+        <v>703</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9020,7 +9226,9 @@
       <c r="C32" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="56" t="s">
+        <v>700</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9030,10 +9238,12 @@
       <c r="B33" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="58" t="s">
+        <v>699</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -9046,7 +9256,9 @@
       <c r="C34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="58" t="s">
+        <v>704</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9059,7 +9271,9 @@
       <c r="C35" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="58" t="s">
+        <v>697</v>
+      </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
@@ -9072,7 +9286,9 @@
       <c r="C36" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="58" t="s">
+        <v>685</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
@@ -9085,7 +9301,9 @@
       <c r="C37" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="58" t="s">
+        <v>698</v>
+      </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9098,7 +9316,9 @@
       <c r="C38" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="58" t="s">
+        <v>708</v>
+      </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
@@ -9111,7 +9331,9 @@
       <c r="C39" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="58" t="s">
+        <v>709</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9124,7 +9346,9 @@
       <c r="C40" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="58" t="s">
+        <v>710</v>
+      </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9137,7 +9361,7 @@
       <c r="C41" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9150,7 +9374,9 @@
       <c r="C42" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="58" t="s">
+        <v>711</v>
+      </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9163,7 +9389,9 @@
       <c r="C43" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="55" t="s">
+        <v>693</v>
+      </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9176,7 +9404,9 @@
       <c r="C44" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="55" t="s">
+        <v>694</v>
+      </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9189,7 +9419,9 @@
       <c r="C45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="55" t="s">
+        <v>692</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9202,7 +9434,9 @@
       <c r="C46" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="55" t="s">
+        <v>689</v>
+      </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9215,7 +9449,9 @@
       <c r="C47" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="55" t="s">
+        <v>688</v>
+      </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9228,7 +9464,7 @@
       <c r="C48" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9241,7 +9477,9 @@
       <c r="C49" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="55" t="s">
+        <v>690</v>
+      </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9254,7 +9492,9 @@
       <c r="C50" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="55" t="s">
+        <v>691</v>
+      </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9267,7 +9507,9 @@
       <c r="C51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="55" t="s">
+        <v>687</v>
+      </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9280,7 +9522,9 @@
       <c r="C52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="55" t="s">
+        <v>686</v>
+      </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9293,7 +9537,7 @@
       <c r="C53" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9306,7 +9550,7 @@
       <c r="C54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9319,7 +9563,7 @@
       <c r="C55" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9332,7 +9576,7 @@
       <c r="C56" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9345,7 +9589,7 @@
       <c r="C57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9358,7 +9602,7 @@
       <c r="C58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9371,7 +9615,7 @@
       <c r="C59" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -9384,7 +9628,7 @@
       <c r="C60" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -9397,7 +9641,7 @@
       <c r="C61" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9410,7 +9654,7 @@
       <c r="C62" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9423,7 +9667,7 @@
       <c r="C63" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9436,7 +9680,7 @@
       <c r="C64" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9449,7 +9693,7 @@
       <c r="C65" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9462,7 +9706,7 @@
       <c r="C66" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9475,7 +9719,7 @@
       <c r="C67" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9488,7 +9732,7 @@
       <c r="C68" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -9501,7 +9745,7 @@
       <c r="C69" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9514,7 +9758,7 @@
       <c r="C70" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9527,7 +9771,7 @@
       <c r="C71" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9540,7 +9784,7 @@
       <c r="C72" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9553,7 +9797,7 @@
       <c r="C73" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9566,7 +9810,7 @@
       <c r="C74" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9579,7 +9823,7 @@
       <c r="C75" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9592,7 +9836,7 @@
       <c r="C76" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9605,7 +9849,7 @@
       <c r="C77" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9618,7 +9862,7 @@
       <c r="C78" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9631,7 +9875,7 @@
       <c r="C79" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9644,7 +9888,7 @@
       <c r="C80" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9657,7 +9901,7 @@
       <c r="C81" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9670,7 +9914,7 @@
       <c r="C82" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9683,7 +9927,7 @@
       <c r="C83" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -9696,7 +9940,7 @@
       <c r="C84" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9709,7 +9953,7 @@
       <c r="C85" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -9722,7 +9966,7 @@
       <c r="C86" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9735,7 +9979,7 @@
       <c r="C87" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
@@ -9748,7 +9992,7 @@
       <c r="C88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9761,7 +10005,7 @@
       <c r="C89" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9774,7 +10018,7 @@
       <c r="C90" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9787,7 +10031,7 @@
       <c r="C91" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9800,7 +10044,7 @@
       <c r="C92" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9813,7 +10057,7 @@
       <c r="C93" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9826,7 +10070,7 @@
       <c r="C94" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -9839,7 +10083,7 @@
       <c r="C95" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -9852,7 +10096,7 @@
       <c r="C96" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -9865,7 +10109,7 @@
       <c r="C97" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9878,7 +10122,7 @@
       <c r="C98" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9891,7 +10135,7 @@
       <c r="C99" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9904,7 +10148,7 @@
       <c r="C100" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="397.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9917,7 +10161,7 @@
       <c r="C101" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9930,7 +10174,7 @@
       <c r="C102" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -9943,7 +10187,7 @@
       <c r="C103" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9956,7 +10200,7 @@
       <c r="C104" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9969,7 +10213,7 @@
       <c r="C105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9982,7 +10226,7 @@
       <c r="C106" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9995,7 +10239,7 @@
       <c r="C107" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="4"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10008,7 +10252,7 @@
       <c r="C108" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10021,7 +10265,7 @@
       <c r="C109" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -10034,7 +10278,7 @@
       <c r="C110" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="4"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -10047,7 +10291,7 @@
       <c r="C111" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D111" s="4"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10060,7 +10304,7 @@
       <c r="C112" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="39"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="39"/>
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10073,7 +10317,7 @@
       <c r="C113" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D113" s="4"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10086,7 +10330,7 @@
       <c r="C114" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="4"/>
     </row>
   </sheetData>
@@ -10212,26 +10456,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2be4ede0-88f7-4ff2-82cd-5be817135a40">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039011DC05272824CB30FA54DCD41CFF6" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9702c13d85964ebc0195c4d9c791d642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2be4ede0-88f7-4ff2-82cd-5be817135a40" xmlns:ns3="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f686a18afbfea8073213d038071be244" ns2:_="" ns3:_="">
     <xsd:import namespace="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
@@ -10432,10 +10656,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2be4ede0-88f7-4ff2-82cd-5be817135a40">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C079579-5EBB-4D7A-80D8-375530DB3229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D984F8BF-416C-44BD-B480-C63E343E3D7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
+    <ds:schemaRef ds:uri="d75cdccf-5e14-4b46-b90b-9f771c2b6e50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10452,20 +10707,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D984F8BF-416C-44BD-B480-C63E343E3D7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C079579-5EBB-4D7A-80D8-375530DB3229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
-    <ds:schemaRef ds:uri="d75cdccf-5e14-4b46-b90b-9f771c2b6e50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/Datos_actualizados.xlsx
+++ b/public/Datos_actualizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ICESI\ProyectoSGR23-Vaupes\Mapa_Interactivo\MapaInteractivo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3CC11-DF78-46F7-92D6-1A2AFD18B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9344A9-CE79-438B-A9F8-A3B1156B856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="772">
   <si>
     <t xml:space="preserve">Se dice haber hablantes yucana en el resgiardo Yaigogé apaporis tanto al lado del Departamento de amazonas como del Vaupés, información por confirmar. </t>
   </si>
@@ -3197,6 +3197,138 @@
   <si>
     <t>0.60776, -70.35344 | 0.5893, -69.8514 | 0.67710, -69.69109 | 0.5986, -70.1319</t>
   </si>
+  <si>
+    <t>0.7271, -70.8975</t>
+  </si>
+  <si>
+    <t>0.72233, -69.48784</t>
+  </si>
+  <si>
+    <t>0.84420, -70.67041</t>
+  </si>
+  <si>
+    <t>0.7289, -70.4976</t>
+  </si>
+  <si>
+    <t>0.69126, -70.18753</t>
+  </si>
+  <si>
+    <t>0.7570, -70.2651</t>
+  </si>
+  <si>
+    <t>1.13100, -70.30615</t>
+  </si>
+  <si>
+    <t>0.98683, -70.61239 | 0.01820, -70.49841</t>
+  </si>
+  <si>
+    <t>0.14368, -70.55763</t>
+  </si>
+  <si>
+    <t>-0.24256, -70.22118</t>
+  </si>
+  <si>
+    <t>0.5658, -70.4224</t>
+  </si>
+  <si>
+    <t>0.4625, -70.6211</t>
+  </si>
+  <si>
+    <t>-1.2002, -69.9397</t>
+  </si>
+  <si>
+    <t>-1.0347, -70.2521</t>
+  </si>
+  <si>
+    <t>-0.6825, -70.3070</t>
+  </si>
+  <si>
+    <t>-1.0505, -69.6767</t>
+  </si>
+  <si>
+    <t>-0.5249, -70.4735</t>
+  </si>
+  <si>
+    <t>-0.52854, -70.56913</t>
+  </si>
+  <si>
+    <t>0.2269, -70.3719</t>
+  </si>
+  <si>
+    <t>0.4518, -70.1292</t>
+  </si>
+  <si>
+    <t>0.14660, -70.20538</t>
+  </si>
+  <si>
+    <t>0.4037, -70.3238</t>
+  </si>
+  <si>
+    <t>-0.37937, -70.30426</t>
+  </si>
+  <si>
+    <t>0.9214, -69.6846</t>
+  </si>
+  <si>
+    <t>1.2009, -69.9314</t>
+  </si>
+  <si>
+    <t>0.30830, -70.10839</t>
+  </si>
+  <si>
+    <t>0.25217, -69.97398</t>
+  </si>
+  <si>
+    <t>-0.8603, -69.8456</t>
+  </si>
+  <si>
+    <t>-0.9688, -69.8906</t>
+  </si>
+  <si>
+    <t>-0.7666, -69.6708 | 0.8806, -69.1703</t>
+  </si>
+  <si>
+    <t>1.7033, -69.6320</t>
+  </si>
+  <si>
+    <t>1.6659, -70.4093</t>
+  </si>
+  <si>
+    <t>1.5201, -70.4382</t>
+  </si>
+  <si>
+    <t>1.8780, -69.4312</t>
+  </si>
+  <si>
+    <t>1.7081, -68.6165</t>
+  </si>
+  <si>
+    <t>1.2661, -69.5476 | 1.6573, -69.8885</t>
+  </si>
+  <si>
+    <t>1.7074, -70.2541 | 1.6728, -70.8810</t>
+  </si>
+  <si>
+    <t>-0.9448, -70.4485</t>
+  </si>
+  <si>
+    <t>-0.6619, -70.3551</t>
+  </si>
+  <si>
+    <t>-1.1401, -70.1686</t>
+  </si>
+  <si>
+    <t>0.0319, -71.0915</t>
+  </si>
+  <si>
+    <t>0.20033, -70.91417</t>
+  </si>
+  <si>
+    <t>0.3464, -70.9576</t>
+  </si>
+  <si>
+    <t>1.1168, -72.0343</t>
+  </si>
 </sst>
 </file>
 
@@ -3406,7 +3538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3544,9 +3676,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3568,6 +3697,25 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8739,7 +8887,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="D111" sqref="D111:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8778,7 +8926,7 @@
       <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>721</v>
       </c>
       <c r="E2" s="39"/>
@@ -8793,7 +8941,7 @@
       <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>722</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -8810,7 +8958,7 @@
       <c r="C4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>723</v>
       </c>
       <c r="E4" s="39"/>
@@ -8825,7 +8973,7 @@
       <c r="C5" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>718</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -8842,7 +8990,7 @@
       <c r="C6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>717</v>
       </c>
       <c r="E6" s="39"/>
@@ -8857,7 +9005,7 @@
       <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>716</v>
       </c>
       <c r="E7" s="39"/>
@@ -8872,7 +9020,7 @@
       <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>712</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -8889,7 +9037,7 @@
       <c r="C9" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>701</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -8906,7 +9054,7 @@
       <c r="C10" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>727</v>
       </c>
       <c r="E10" s="4"/>
@@ -8921,7 +9069,7 @@
       <c r="C11" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>702</v>
       </c>
       <c r="E11" s="4"/>
@@ -8936,7 +9084,7 @@
       <c r="C12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>684</v>
       </c>
       <c r="E12" s="4"/>
@@ -8951,7 +9099,7 @@
       <c r="C13" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>726</v>
       </c>
       <c r="E13" s="4"/>
@@ -8966,7 +9114,7 @@
       <c r="C14" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>725</v>
       </c>
       <c r="E14" s="4"/>
@@ -8981,7 +9129,7 @@
       <c r="C15" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>724</v>
       </c>
       <c r="E15" s="4"/>
@@ -8996,7 +9144,7 @@
       <c r="C16" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9009,7 +9157,7 @@
       <c r="C17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>713</v>
       </c>
       <c r="E17" s="4"/>
@@ -9024,7 +9172,7 @@
       <c r="C18" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>696</v>
       </c>
       <c r="E18" s="4"/>
@@ -9039,7 +9187,7 @@
       <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>695</v>
       </c>
       <c r="E19" s="4"/>
@@ -9054,7 +9202,7 @@
       <c r="C20" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9067,7 +9215,7 @@
       <c r="C21" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9080,7 +9228,7 @@
       <c r="C22" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>719</v>
       </c>
       <c r="E22" s="4"/>
@@ -9095,7 +9243,7 @@
       <c r="C23" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>715</v>
       </c>
       <c r="E23" s="4"/>
@@ -9110,7 +9258,7 @@
       <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>714</v>
       </c>
       <c r="E24" s="4"/>
@@ -9125,13 +9273,13 @@
       <c r="C25" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>720</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -9140,7 +9288,7 @@
       <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>707</v>
       </c>
       <c r="E26" s="4"/>
@@ -9155,7 +9303,7 @@
       <c r="C27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>705</v>
       </c>
       <c r="E27" s="4"/>
@@ -9170,7 +9318,7 @@
       <c r="C28" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9183,7 +9331,7 @@
       <c r="C29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>706</v>
       </c>
       <c r="E29" s="4"/>
@@ -9198,7 +9346,7 @@
       <c r="C30" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9211,7 +9359,7 @@
       <c r="C31" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>703</v>
       </c>
       <c r="E31" s="4"/>
@@ -9226,7 +9374,7 @@
       <c r="C32" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="55" t="s">
         <v>700</v>
       </c>
       <c r="E32" s="4"/>
@@ -9238,10 +9386,10 @@
       <c r="B33" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="57" t="s">
         <v>699</v>
       </c>
       <c r="E33" s="4"/>
@@ -9256,7 +9404,7 @@
       <c r="C34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="57" t="s">
         <v>704</v>
       </c>
       <c r="E34" s="4"/>
@@ -9271,7 +9419,7 @@
       <c r="C35" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="57" t="s">
         <v>697</v>
       </c>
       <c r="E35" s="4"/>
@@ -9286,7 +9434,7 @@
       <c r="C36" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="57" t="s">
         <v>685</v>
       </c>
       <c r="E36" s="4"/>
@@ -9301,7 +9449,7 @@
       <c r="C37" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="57" t="s">
         <v>698</v>
       </c>
       <c r="E37" s="4"/>
@@ -9316,7 +9464,7 @@
       <c r="C38" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="57" t="s">
         <v>708</v>
       </c>
       <c r="E38" s="4"/>
@@ -9331,7 +9479,7 @@
       <c r="C39" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="57" t="s">
         <v>709</v>
       </c>
       <c r="E39" s="4"/>
@@ -9346,7 +9494,7 @@
       <c r="C40" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>710</v>
       </c>
       <c r="E40" s="4"/>
@@ -9361,7 +9509,7 @@
       <c r="C41" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9374,7 +9522,7 @@
       <c r="C42" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="57" t="s">
         <v>711</v>
       </c>
       <c r="E42" s="4"/>
@@ -9389,7 +9537,7 @@
       <c r="C43" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>693</v>
       </c>
       <c r="E43" s="4"/>
@@ -9404,7 +9552,7 @@
       <c r="C44" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="54" t="s">
         <v>694</v>
       </c>
       <c r="E44" s="4"/>
@@ -9419,7 +9567,7 @@
       <c r="C45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="54" t="s">
         <v>692</v>
       </c>
       <c r="E45" s="4"/>
@@ -9434,7 +9582,7 @@
       <c r="C46" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="54" t="s">
         <v>689</v>
       </c>
       <c r="E46" s="4"/>
@@ -9449,7 +9597,7 @@
       <c r="C47" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="54" t="s">
         <v>688</v>
       </c>
       <c r="E47" s="4"/>
@@ -9464,7 +9612,7 @@
       <c r="C48" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9477,7 +9625,7 @@
       <c r="C49" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="54" t="s">
         <v>690</v>
       </c>
       <c r="E49" s="4"/>
@@ -9492,7 +9640,7 @@
       <c r="C50" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="54" t="s">
         <v>691</v>
       </c>
       <c r="E50" s="4"/>
@@ -9507,7 +9655,7 @@
       <c r="C51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="54" t="s">
         <v>687</v>
       </c>
       <c r="E51" s="4"/>
@@ -9522,7 +9670,7 @@
       <c r="C52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="54" t="s">
         <v>686</v>
       </c>
       <c r="E52" s="4"/>
@@ -9537,7 +9685,9 @@
       <c r="C53" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="55"/>
+      <c r="D53" s="54" t="s">
+        <v>729</v>
+      </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9550,7 +9700,9 @@
       <c r="C54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="54" t="s">
+        <v>728</v>
+      </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9563,7 +9715,9 @@
       <c r="C55" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="54" t="s">
+        <v>730</v>
+      </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9576,21 +9730,23 @@
       <c r="C56" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="54" t="s">
+        <v>731</v>
+      </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:5" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -9602,7 +9758,9 @@
       <c r="C58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="54" t="s">
+        <v>732</v>
+      </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9615,21 +9773,23 @@
       <c r="C59" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="54" t="s">
+        <v>733</v>
+      </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:5" s="64" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
@@ -9641,7 +9801,9 @@
       <c r="C61" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="55"/>
+      <c r="D61" s="54" t="s">
+        <v>734</v>
+      </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9654,7 +9816,9 @@
       <c r="C62" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="55"/>
+      <c r="D62" s="54" t="s">
+        <v>735</v>
+      </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9667,7 +9831,9 @@
       <c r="C63" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D63" s="55"/>
+      <c r="D63" s="54" t="s">
+        <v>736</v>
+      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9680,60 +9846,62 @@
       <c r="C64" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="54" t="s">
+        <v>737</v>
+      </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:5" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="D66" s="63"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="1:5" s="64" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -9745,7 +9913,9 @@
       <c r="C69" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="54" t="s">
+        <v>738</v>
+      </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -9758,7 +9928,9 @@
       <c r="C70" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="54" t="s">
+        <v>739</v>
+      </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9771,7 +9943,9 @@
       <c r="C71" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D71" s="55"/>
+      <c r="D71" s="54" t="s">
+        <v>740</v>
+      </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9784,7 +9958,9 @@
       <c r="C72" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="55"/>
+      <c r="D72" s="54" t="s">
+        <v>741</v>
+      </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9797,7 +9973,9 @@
       <c r="C73" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D73" s="55"/>
+      <c r="D73" s="54" t="s">
+        <v>742</v>
+      </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9810,7 +9988,9 @@
       <c r="C74" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="55"/>
+      <c r="D74" s="54" t="s">
+        <v>743</v>
+      </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9823,7 +10003,9 @@
       <c r="C75" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="55"/>
+      <c r="D75" s="54" t="s">
+        <v>744</v>
+      </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9836,7 +10018,9 @@
       <c r="C76" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="55"/>
+      <c r="D76" s="54" t="s">
+        <v>745</v>
+      </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -9849,7 +10033,9 @@
       <c r="C77" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="55"/>
+      <c r="D77" s="54" t="s">
+        <v>746</v>
+      </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9862,7 +10048,9 @@
       <c r="C78" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="55"/>
+      <c r="D78" s="54" t="s">
+        <v>747</v>
+      </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9875,7 +10063,9 @@
       <c r="C79" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="D79" s="55"/>
+      <c r="D79" s="54" t="s">
+        <v>748</v>
+      </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9888,7 +10078,9 @@
       <c r="C80" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="D80" s="55"/>
+      <c r="D80" s="54" t="s">
+        <v>749</v>
+      </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9901,7 +10093,9 @@
       <c r="C81" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D81" s="55"/>
+      <c r="D81" s="54" t="s">
+        <v>750</v>
+      </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9914,7 +10108,7 @@
       <c r="C82" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="55"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9927,7 +10121,9 @@
       <c r="C83" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="55"/>
+      <c r="D83" s="54" t="s">
+        <v>751</v>
+      </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -9940,7 +10136,9 @@
       <c r="C84" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="55"/>
+      <c r="D84" s="54" t="s">
+        <v>752</v>
+      </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -9953,34 +10151,36 @@
       <c r="C85" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="D85" s="55"/>
+      <c r="D85" s="54" t="s">
+        <v>753</v>
+      </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:5" s="64" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+      <c r="D86" s="63"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="4"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="21"/>
     </row>
     <row r="88" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
@@ -9992,34 +10192,36 @@
       <c r="C88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="55"/>
+      <c r="D88" s="54" t="s">
+        <v>754</v>
+      </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:5" s="64" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="1:5" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="D90" s="55"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="21"/>
     </row>
     <row r="91" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -10031,7 +10233,9 @@
       <c r="C91" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D91" s="55"/>
+      <c r="D91" s="54" t="s">
+        <v>755</v>
+      </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -10044,7 +10248,9 @@
       <c r="C92" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="D92" s="55"/>
+      <c r="D92" s="54" t="s">
+        <v>756</v>
+      </c>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -10057,21 +10263,23 @@
       <c r="C93" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="55"/>
+      <c r="D93" s="54" t="s">
+        <v>757</v>
+      </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:5" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
@@ -10083,21 +10291,23 @@
       <c r="C95" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="54" t="s">
+        <v>758</v>
+      </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:5" s="64" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="D96" s="55"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -10109,7 +10319,9 @@
       <c r="C97" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="54" t="s">
+        <v>759</v>
+      </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -10122,7 +10334,9 @@
       <c r="C98" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="54" t="s">
+        <v>760</v>
+      </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -10135,7 +10349,9 @@
       <c r="C99" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="54" t="s">
+        <v>761</v>
+      </c>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10148,7 +10364,9 @@
       <c r="C100" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="54" t="s">
+        <v>762</v>
+      </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="397.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10161,7 +10379,9 @@
       <c r="C101" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="54" t="s">
+        <v>763</v>
+      </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -10174,7 +10394,9 @@
       <c r="C102" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="54" t="s">
+        <v>764</v>
+      </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
@@ -10187,7 +10409,9 @@
       <c r="C103" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="55"/>
+      <c r="D103" s="54" t="s">
+        <v>765</v>
+      </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10200,7 +10424,9 @@
       <c r="C104" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="55"/>
+      <c r="D104" s="54" t="s">
+        <v>766</v>
+      </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10213,7 +10439,9 @@
       <c r="C105" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="54" t="s">
+        <v>767</v>
+      </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
@@ -10226,7 +10454,9 @@
       <c r="C106" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D106" s="55"/>
+      <c r="D106" s="54" t="s">
+        <v>768</v>
+      </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10239,21 +10469,23 @@
       <c r="C107" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="54" t="s">
+        <v>769</v>
+      </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:5" s="64" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="55"/>
-      <c r="E108" s="4"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -10265,7 +10497,9 @@
       <c r="C109" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="55"/>
+      <c r="D109" s="54" t="s">
+        <v>770</v>
+      </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -10278,7 +10512,9 @@
       <c r="C110" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="55"/>
+      <c r="D110" s="54" t="s">
+        <v>771</v>
+      </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -10291,7 +10527,7 @@
       <c r="C111" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D111" s="55"/>
+      <c r="D111" s="63"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10304,7 +10540,7 @@
       <c r="C112" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="53"/>
+      <c r="D112" s="67"/>
       <c r="E112" s="39"/>
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -10317,7 +10553,7 @@
       <c r="C113" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D113" s="55"/>
+      <c r="D113" s="63"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10330,7 +10566,7 @@
       <c r="C114" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="D114" s="55"/>
+      <c r="D114" s="63"/>
       <c r="E114" s="4"/>
     </row>
   </sheetData>
@@ -10456,6 +10692,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2be4ede0-88f7-4ff2-82cd-5be817135a40">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039011DC05272824CB30FA54DCD41CFF6" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9702c13d85964ebc0195c4d9c791d642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2be4ede0-88f7-4ff2-82cd-5be817135a40" xmlns:ns3="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f686a18afbfea8073213d038071be244" ns2:_="" ns3:_="">
     <xsd:import namespace="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
@@ -10656,27 +10912,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2be4ede0-88f7-4ff2-82cd-5be817135a40">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d75cdccf-5e14-4b46-b90b-9f771c2b6e50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C079579-5EBB-4D7A-80D8-375530DB3229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779BB8E0-F22E-4D92-B7A7-03C456B7F54A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
+    <ds:schemaRef ds:uri="d75cdccf-5e14-4b46-b90b-9f771c2b6e50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D984F8BF-416C-44BD-B480-C63E343E3D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10693,23 +10948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779BB8E0-F22E-4D92-B7A7-03C456B7F54A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2be4ede0-88f7-4ff2-82cd-5be817135a40"/>
-    <ds:schemaRef ds:uri="d75cdccf-5e14-4b46-b90b-9f771c2b6e50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C079579-5EBB-4D7A-80D8-375530DB3229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>